--- a/colbert/output/Results_colbert_max_steps_extraQuestions.xlsx
+++ b/colbert/output/Results_colbert_max_steps_extraQuestions.xlsx
@@ -3902,11 +3902,11 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>87098</v>
+        <v>44045</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>homemade  vegetable soup from a can</t>
+          <t>mennonite  corn fritters</t>
         </is>
       </c>
     </row>
@@ -3927,11 +3927,11 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>44045</v>
+        <v>87098</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>mennonite  corn fritters</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -3952,11 +3952,11 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>39959</v>
+        <v>112140</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -4277,11 +4277,11 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>25274</v>
+        <v>23933</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>chinese  candy</t>
         </is>
       </c>
     </row>
@@ -4627,11 +4627,11 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>58224</v>
+        <v>112140</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -4702,11 +4702,11 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>33606</v>
+        <v>58224</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -8802,11 +8802,11 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>25274</v>
+        <v>30131</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>momma s special  marinade</t>
         </is>
       </c>
     </row>
@@ -8827,11 +8827,11 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>30131</v>
+        <v>93249</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>momma s special  marinade</t>
+          <t>grilled  ranch bread</t>
         </is>
       </c>
     </row>
@@ -13127,11 +13127,11 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>38798</v>
+        <v>52804</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>i can t believe it s spinach</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -13152,11 +13152,11 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>52804</v>
+        <v>26995</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>keep it going  german friendship cake</t>
         </is>
       </c>
     </row>
@@ -13202,11 +13202,11 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>26995</v>
+        <v>27087</v>
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>keep it going  german friendship cake</t>
+          <t>get the sensation  brownies</t>
         </is>
       </c>
     </row>

--- a/colbert/output/Results_colbert_max_steps_extraQuestions.xlsx
+++ b/colbert/output/Results_colbert_max_steps_extraQuestions.xlsx
@@ -477,11 +477,11 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23850</v>
+        <v>290851</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>apple and goats  cheese brulee</t>
         </is>
       </c>
     </row>
@@ -502,11 +502,11 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>93249</v>
+        <v>310345</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>grilled  ranch bread</t>
+          <t>apple creme brulee</t>
         </is>
       </c>
     </row>
@@ -527,11 +527,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>76808</v>
+        <v>37284</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>apple cinnamon creme brulee</t>
         </is>
       </c>
     </row>
@@ -552,11 +552,11 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>24701</v>
+        <v>205645</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>apple creme brulee cheesecake</t>
         </is>
       </c>
     </row>
@@ -577,11 +577,11 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>42522</v>
+        <v>151746</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>diamond  creme brulee</t>
         </is>
       </c>
     </row>
@@ -602,11 +602,11 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>23850</v>
+        <v>422147</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>alouette extra creamy brie with dried fruit and almonds</t>
         </is>
       </c>
     </row>
@@ -627,11 +627,11 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>24701</v>
+        <v>279676</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>artichoke brie dip</t>
         </is>
       </c>
     </row>
@@ -652,11 +652,11 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>76808</v>
+        <v>289080</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>amazing lavender crme brle</t>
         </is>
       </c>
     </row>
@@ -677,11 +677,11 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>93249</v>
+        <v>260352</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>grilled  ranch bread</t>
+          <t>apple brie omelet</t>
         </is>
       </c>
     </row>
@@ -702,11 +702,11 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>74805</v>
+        <v>46540</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>never weep  whipped cream</t>
+          <t>apricot rosemary brie in boule</t>
         </is>
       </c>
     </row>
@@ -727,11 +727,11 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>39363</v>
+        <v>99020</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>apple brown betty</t>
         </is>
       </c>
     </row>
@@ -752,11 +752,11 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>83062</v>
+        <v>62516</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>spicy  banana bread</t>
+          <t>apple tart with frangipane  almond  filling</t>
         </is>
       </c>
     </row>
@@ -777,11 +777,11 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>83025</v>
+        <v>311985</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>jeanne s style  birthday cake</t>
+          <t>araby spice cake</t>
         </is>
       </c>
     </row>
@@ -802,11 +802,11 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>93249</v>
+        <v>160494</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>grilled  ranch bread</t>
+          <t>1940s vinegar cake    egg free</t>
         </is>
       </c>
     </row>
@@ -827,11 +827,11 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>42522</v>
+        <v>90706</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>apricot banana squares</t>
         </is>
       </c>
     </row>
@@ -852,11 +852,11 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>62368</v>
+        <v>17646</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>all chocolate boston cream pie</t>
         </is>
       </c>
     </row>
@@ -877,11 +877,11 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>58651</v>
+        <v>463510</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>all chocolate boston cream pie</t>
         </is>
       </c>
     </row>
@@ -902,11 +902,11 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>31490</v>
+        <v>110094</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>a bit different  breakfast pizza</t>
+          <t>apricot  chocolate  and walnut scones</t>
         </is>
       </c>
     </row>
@@ -927,11 +927,11 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>27087</v>
+        <v>48774</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>get the sensation  brownies</t>
+          <t>apricot chocolate chip cake</t>
         </is>
       </c>
     </row>
@@ -952,11 +952,11 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>71635</v>
+        <v>81108</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>3 ingredient chocolate cake</t>
         </is>
       </c>
     </row>
@@ -977,11 +977,11 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>31490</v>
+        <v>33316</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>a bit different  breakfast pizza</t>
+          <t>amaretto chocolate pudding</t>
         </is>
       </c>
     </row>
@@ -1002,11 +1002,11 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>58651</v>
+        <v>161269</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>artichoke pizza</t>
         </is>
       </c>
     </row>
@@ -1027,11 +1027,11 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>32271</v>
+        <v>86768</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>one pot  brownies</t>
+          <t>perfect  chocolate frosting</t>
         </is>
       </c>
     </row>
@@ -1052,11 +1052,11 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>62368</v>
+        <v>334476</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>5 way easy chocolate fudge</t>
         </is>
       </c>
     </row>
@@ -1077,11 +1077,11 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>71635</v>
+        <v>334398</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>angelinas hot chocolate</t>
         </is>
       </c>
     </row>
@@ -1102,11 +1102,11 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>58651</v>
+        <v>471469</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>amaretto yogurt sauce</t>
         </is>
       </c>
     </row>
@@ -1127,11 +1127,11 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>62368</v>
+        <v>125381</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>another dump cake</t>
         </is>
       </c>
     </row>
@@ -1152,11 +1152,11 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>71635</v>
+        <v>376839</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>6 layer dreamy chocolate mousse cake  paula deen</t>
         </is>
       </c>
     </row>
@@ -1177,11 +1177,11 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>32271</v>
+        <v>306471</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>one pot  brownies</t>
+          <t>7 layer cookies</t>
         </is>
       </c>
     </row>
@@ -1202,11 +1202,11 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>83025</v>
+        <v>42832</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>jeanne s style  birthday cake</t>
+          <t>all occasion cookies</t>
         </is>
       </c>
     </row>
@@ -1227,11 +1227,11 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>71457</v>
+        <v>124853</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>rise and shine  german fruit pancake</t>
+          <t>apple pie</t>
         </is>
       </c>
     </row>
@@ -1252,11 +1252,11 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>19208</v>
+        <v>65988</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>red hot  applesauce</t>
+          <t>apple pie</t>
         </is>
       </c>
     </row>
@@ -1277,11 +1277,11 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>63593</v>
+        <v>257335</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>more  more    apple pear jigglers</t>
+          <t>apple pie with a crust</t>
         </is>
       </c>
     </row>
@@ -1302,11 +1302,11 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>24701</v>
+        <v>18476</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>apple cider pie</t>
         </is>
       </c>
     </row>
@@ -1327,11 +1327,11 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>42198</v>
+        <v>51379</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>better than sex  strawberries</t>
+          <t>apple   cream pie</t>
         </is>
       </c>
     </row>
@@ -1352,11 +1352,11 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>19208</v>
+        <v>10657</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>red hot  applesauce</t>
+          <t>apple cream pie</t>
         </is>
       </c>
     </row>
@@ -1377,11 +1377,11 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>63593</v>
+        <v>7251</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>more  more    apple pear jigglers</t>
+          <t>apple cranberry pie</t>
         </is>
       </c>
     </row>
@@ -1402,11 +1402,11 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>71457</v>
+        <v>108263</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>rise and shine  german fruit pancake</t>
+          <t>apple honey pie</t>
         </is>
       </c>
     </row>
@@ -1427,11 +1427,11 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>52804</v>
+        <v>98055</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>apple sour cream pie</t>
         </is>
       </c>
     </row>
@@ -1452,11 +1452,11 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>24701</v>
+        <v>291363</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>apple raisin pie</t>
         </is>
       </c>
     </row>
@@ -1477,11 +1477,11 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>24701</v>
+        <v>29781</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>apple pie in a bottle</t>
         </is>
       </c>
     </row>
@@ -1502,11 +1502,11 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>19208</v>
+        <v>29939</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>red hot  applesauce</t>
+          <t>amish apple crisp</t>
         </is>
       </c>
     </row>
@@ -1527,11 +1527,11 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>44123</v>
+        <v>125381</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>george s at the cove  black bean soup</t>
+          <t>another dump cake</t>
         </is>
       </c>
     </row>
@@ -1552,11 +1552,11 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>83025</v>
+        <v>187297</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>jeanne s style  birthday cake</t>
+          <t>apple crumb pie  zwt midwestern region</t>
         </is>
       </c>
     </row>
@@ -1577,11 +1577,11 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>108414</v>
+        <v>255505</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>jiffy  roasted corn and jalapeno cornbread</t>
+          <t>apple pie surprise diabetic</t>
         </is>
       </c>
     </row>
@@ -1602,11 +1602,11 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>39363</v>
+        <v>204622</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>apple butter banana bread</t>
         </is>
       </c>
     </row>
@@ -1627,11 +1627,11 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>83062</v>
+        <v>6627</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>spicy  banana bread</t>
+          <t>apple banana bread</t>
         </is>
       </c>
     </row>
@@ -1652,11 +1652,11 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>95926</v>
+        <v>22774</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>100  yummy banana bread</t>
         </is>
       </c>
     </row>
@@ -1677,11 +1677,11 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>75452</v>
+        <v>39363</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>beat this  banana bread</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -1702,11 +1702,11 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>111875</v>
+        <v>27313</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>apricot banana bread</t>
         </is>
       </c>
     </row>
@@ -1727,11 +1727,11 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>39363</v>
+        <v>313297</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>allison s banana bread</t>
         </is>
       </c>
     </row>
@@ -1752,11 +1752,11 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>83062</v>
+        <v>397163</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>spicy  banana bread</t>
+          <t>a winning banana nut bread</t>
         </is>
       </c>
     </row>
@@ -1777,11 +1777,11 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>75452</v>
+        <v>39363</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>beat this  banana bread</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -1802,11 +1802,11 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>95926</v>
+        <v>22774</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>100  yummy banana bread</t>
         </is>
       </c>
     </row>
@@ -1827,11 +1827,11 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>93249</v>
+        <v>83062</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>grilled  ranch bread</t>
+          <t>spicy  banana bread</t>
         </is>
       </c>
     </row>
@@ -1852,11 +1852,11 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>75452</v>
+        <v>489534</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>beat this  banana bread</t>
+          <t>apple sauce  banana and raisin bread pudding</t>
         </is>
       </c>
     </row>
@@ -1877,11 +1877,11 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>83062</v>
+        <v>286344</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>spicy  banana bread</t>
+          <t>amaretto bananas foster</t>
         </is>
       </c>
     </row>
@@ -1902,11 +1902,11 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>95926</v>
+        <v>304363</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>a complete breakfast in bed for the one you love</t>
         </is>
       </c>
     </row>
@@ -1927,11 +1927,11 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>107699</v>
+        <v>377431</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>an actual banana split cake</t>
         </is>
       </c>
     </row>
@@ -1952,11 +1952,11 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>39363</v>
+        <v>190858</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>apple stacks</t>
         </is>
       </c>
     </row>
@@ -1977,11 +1977,11 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>53402</v>
+        <v>65007</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>killer  lasagna</t>
+          <t>5 cheese crab lasagna with roasted garlic and vegetables</t>
         </is>
       </c>
     </row>
@@ -2002,11 +2002,11 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>39363</v>
+        <v>313066</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>30 minute lasagna bowls</t>
         </is>
       </c>
     </row>
@@ -2027,11 +2027,11 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>35964</v>
+        <v>166082</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>3 cheese lasagna</t>
         </is>
       </c>
     </row>
@@ -2052,11 +2052,11 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>24701</v>
+        <v>238046</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>amazing vegetarian or vegan lasagna</t>
         </is>
       </c>
     </row>
@@ -2077,11 +2077,11 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>112959</v>
+        <v>28768</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>absolute best ever lasagna</t>
         </is>
       </c>
     </row>
@@ -2102,11 +2102,11 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>53402</v>
+        <v>369204</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>killer  lasagna</t>
+          <t>american beauty lasagna</t>
         </is>
       </c>
     </row>
@@ -2127,11 +2127,11 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>112959</v>
+        <v>238046</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>amazing vegetarian or vegan lasagna</t>
         </is>
       </c>
     </row>
@@ -2152,11 +2152,11 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>44123</v>
+        <v>216361</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>george s at the cove  black bean soup</t>
+          <t>apple and cheddar cheese dessert lasagna</t>
         </is>
       </c>
     </row>
@@ -2177,11 +2177,11 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>90921</v>
+        <v>413109</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>i stole the idea from mirj  sesame noodles</t>
+          <t>amazing low fat turkey lasagna roll ups</t>
         </is>
       </c>
     </row>
@@ -2202,11 +2202,11 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>24701</v>
+        <v>28768</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>absolute best ever lasagna</t>
         </is>
       </c>
     </row>
@@ -2227,11 +2227,11 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>47366</v>
+        <v>238046</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>forgotten  minestrone</t>
+          <t>amazing vegetarian or vegan lasagna</t>
         </is>
       </c>
     </row>
@@ -2252,11 +2252,11 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>24701</v>
+        <v>413109</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>amazing low fat turkey lasagna roll ups</t>
         </is>
       </c>
     </row>
@@ -2277,11 +2277,11 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>43026</v>
+        <v>166082</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>chile rellenos</t>
+          <t>3 cheese lasagna</t>
         </is>
       </c>
     </row>
@@ -2302,11 +2302,11 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>93249</v>
+        <v>49021</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>grilled  ranch bread</t>
+          <t>apple lasagna</t>
         </is>
       </c>
     </row>
@@ -2327,11 +2327,11 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>64302</v>
+        <v>28768</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>red  macaroni salad</t>
+          <t>absolute best ever lasagna</t>
         </is>
       </c>
     </row>
@@ -2352,11 +2352,11 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>62368</v>
+        <v>81108</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>3 ingredient chocolate cake</t>
         </is>
       </c>
     </row>
@@ -2377,11 +2377,11 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>32271</v>
+        <v>318070</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>one pot  brownies</t>
+          <t>almond chocolate coffee cake</t>
         </is>
       </c>
     </row>
@@ -2402,11 +2402,11 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>58651</v>
+        <v>243080</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>a chocolate syrup cake</t>
         </is>
       </c>
     </row>
@@ -2427,11 +2427,11 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>83025</v>
+        <v>48774</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>jeanne s style  birthday cake</t>
+          <t>apricot chocolate chip cake</t>
         </is>
       </c>
     </row>
@@ -2452,11 +2452,11 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>35964</v>
+        <v>460882</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>5 minute chocolate mug cake</t>
         </is>
       </c>
     </row>
@@ -2477,11 +2477,11 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>32271</v>
+        <v>250546</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>one pot  brownies</t>
+          <t>almond chocolate biscotti  using cake mix</t>
         </is>
       </c>
     </row>
@@ -2502,11 +2502,11 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>62368</v>
+        <v>520809</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>3 layer chocolate cake with chocolate mousse filling  gluten fre</t>
         </is>
       </c>
     </row>
@@ -2527,11 +2527,11 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>35964</v>
+        <v>460882</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>5 minute chocolate mug cake</t>
         </is>
       </c>
     </row>
@@ -2552,11 +2552,11 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>58651</v>
+        <v>24689</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>almond chocolate cake with ganache</t>
         </is>
       </c>
     </row>
@@ -2577,11 +2577,11 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>71635</v>
+        <v>489497</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>absolutely divine devil s food cake</t>
         </is>
       </c>
     </row>
@@ -2602,11 +2602,11 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>62368</v>
+        <v>471469</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>amaretto yogurt sauce</t>
         </is>
       </c>
     </row>
@@ -2627,11 +2627,11 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>83025</v>
+        <v>128544</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>jeanne s style  birthday cake</t>
+          <t>250 of nearly everything chocolate cake</t>
         </is>
       </c>
     </row>
@@ -2652,11 +2652,11 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>32271</v>
+        <v>255928</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>one pot  brownies</t>
+          <t>1 2 3 banana split ice cream cake</t>
         </is>
       </c>
     </row>
@@ -2677,11 +2677,11 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>71635</v>
+        <v>125381</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>another dump cake</t>
         </is>
       </c>
     </row>
@@ -2702,11 +2702,11 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>52804</v>
+        <v>175912</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>always tastes great  gluten free easy cake with variations</t>
         </is>
       </c>
     </row>
@@ -2727,11 +2727,11 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>58651</v>
+        <v>309806</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>3 ingredient fruity chocolate mousse</t>
         </is>
       </c>
     </row>
@@ -2752,11 +2752,11 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>32271</v>
+        <v>369262</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>one pot  brownies</t>
+          <t>aces  frozen chocolate mousse pie</t>
         </is>
       </c>
     </row>
@@ -2777,11 +2777,11 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>71635</v>
+        <v>469890</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>amazingly delicious chocolate mousse</t>
         </is>
       </c>
     </row>
@@ -2802,11 +2802,11 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>49262</v>
+        <v>520809</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>easiest ever  hollandaise sauce</t>
+          <t>3 layer chocolate cake with chocolate mousse filling  gluten fre</t>
         </is>
       </c>
     </row>
@@ -2827,11 +2827,11 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>62368</v>
+        <v>257354</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>amaretto spiked chocolate mousse  vegan</t>
         </is>
       </c>
     </row>
@@ -2852,11 +2852,11 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>32271</v>
+        <v>520809</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>one pot  brownies</t>
+          <t>3 layer chocolate cake with chocolate mousse filling  gluten fre</t>
         </is>
       </c>
     </row>
@@ -2877,11 +2877,11 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>58651</v>
+        <v>369262</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>aces  frozen chocolate mousse pie</t>
         </is>
       </c>
     </row>
@@ -2902,11 +2902,11 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>62368</v>
+        <v>469890</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>amazingly delicious chocolate mousse</t>
         </is>
       </c>
     </row>
@@ -2927,11 +2927,11 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>27087</v>
+        <v>309806</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>get the sensation  brownies</t>
+          <t>3 ingredient fruity chocolate mousse</t>
         </is>
       </c>
     </row>
@@ -2952,11 +2952,11 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>35964</v>
+        <v>376839</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>6 layer dreamy chocolate mousse cake  paula deen</t>
         </is>
       </c>
     </row>
@@ -2977,11 +2977,11 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>62368</v>
+        <v>307279</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>a ptissier s black forest cake</t>
         </is>
       </c>
     </row>
@@ -3002,11 +3002,11 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>32271</v>
+        <v>369262</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>one pot  brownies</t>
+          <t>aces  frozen chocolate mousse pie</t>
         </is>
       </c>
     </row>
@@ -3027,11 +3027,11 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>107517</v>
+        <v>392181</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>boat house  collard greens</t>
+          <t>the real  black tie mousse cake by olive garden</t>
         </is>
       </c>
     </row>
@@ -3052,11 +3052,11 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>71635</v>
+        <v>376839</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>6 layer dreamy chocolate mousse cake  paula deen</t>
         </is>
       </c>
     </row>
@@ -3077,11 +3077,11 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>83025</v>
+        <v>469890</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>jeanne s style  birthday cake</t>
+          <t>amazingly delicious chocolate mousse</t>
         </is>
       </c>
     </row>
@@ -3102,11 +3102,11 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>75452</v>
+        <v>280644</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>beat this  banana bread</t>
+          <t>in the pink  lemonade</t>
         </is>
       </c>
     </row>
@@ -3127,11 +3127,11 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>83133</v>
+        <v>29360</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>asparagus with brown butter</t>
         </is>
       </c>
     </row>
@@ -3152,11 +3152,11 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>64302</v>
+        <v>155106</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>red  macaroni salad</t>
+          <t>asparagus dijonnaise</t>
         </is>
       </c>
     </row>
@@ -3177,11 +3177,11 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>84797</v>
+        <v>479593</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>asparagus with butter lemon and mint drizzle</t>
         </is>
       </c>
     </row>
@@ -3202,11 +3202,11 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>42570</v>
+        <v>205504</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>apricot lemon marmalade</t>
         </is>
       </c>
     </row>
@@ -3227,11 +3227,11 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>45859</v>
+        <v>280555</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>truth serum  margaritas</t>
+          <t>almond and lime lemonade</t>
         </is>
       </c>
     </row>
@@ -3252,11 +3252,11 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>24478</v>
+        <v>38905</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>marijuana  vinegar</t>
+          <t>4 lemon gallon o  lemonade</t>
         </is>
       </c>
     </row>
@@ -3277,11 +3277,11 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>75452</v>
+        <v>90802</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>beat this  banana bread</t>
+          <t>apple lemonade</t>
         </is>
       </c>
     </row>
@@ -3302,11 +3302,11 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>112959</v>
+        <v>238435</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>amish style lemonade</t>
         </is>
       </c>
     </row>
@@ -3327,11 +3327,11 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>64302</v>
+        <v>280644</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>red  macaroni salad</t>
+          <t>in the pink  lemonade</t>
         </is>
       </c>
     </row>
@@ -3352,11 +3352,11 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>81185</v>
+        <v>123900</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>mock a mole   low fat guacamole</t>
+          <t>apple cheese spread</t>
         </is>
       </c>
     </row>
@@ -3377,11 +3377,11 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>59952</v>
+        <v>367587</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>global gourmet  taco casserole</t>
+          <t>apfelschorle  german apple spritzer</t>
         </is>
       </c>
     </row>
@@ -3402,11 +3402,11 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>45859</v>
+        <v>88365</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>truth serum  margaritas</t>
+          <t>another garlic shrimp recipe</t>
         </is>
       </c>
     </row>
@@ -3427,11 +3427,11 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>75452</v>
+        <v>477379</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>beat this  banana bread</t>
+          <t>aarsis ultimate hariyali chicken tikka</t>
         </is>
       </c>
     </row>
@@ -3452,11 +3452,11 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>41756</v>
+        <v>349223</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>souper  easy sweet   sour meatballs</t>
+          <t>apricot glazed sriracha wings</t>
         </is>
       </c>
     </row>
@@ -3477,11 +3477,11 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>54100</v>
+        <v>89559</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>grilled  venison burgers</t>
+          <t>apple grilled cheese sandwich</t>
         </is>
       </c>
     </row>
@@ -3502,11 +3502,11 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>35173</v>
+        <v>446192</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>italian  gut busters</t>
+          <t>antipasto grilled cheese sandwich</t>
         </is>
       </c>
     </row>
@@ -3527,11 +3527,11 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>99024</v>
+        <v>100540</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>smoked  salmon  cracker spread</t>
+          <t>almost grilled  cheese sandwich</t>
         </is>
       </c>
     </row>
@@ -3552,11 +3552,11 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>107699</v>
+        <v>304216</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>a different grilled cheese sammich</t>
         </is>
       </c>
     </row>
@@ -3577,11 +3577,11 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>93249</v>
+        <v>338753</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>grilled  ranch bread</t>
+          <t>5 cheese grilled cheese</t>
         </is>
       </c>
     </row>
@@ -3602,11 +3602,11 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>58224</v>
+        <v>304216</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>a different grilled cheese sammich</t>
         </is>
       </c>
     </row>
@@ -3627,11 +3627,11 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>62368</v>
+        <v>89559</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>apple grilled cheese sandwich</t>
         </is>
       </c>
     </row>
@@ -3652,11 +3652,11 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>71635</v>
+        <v>446192</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>antipasto grilled cheese sandwich</t>
         </is>
       </c>
     </row>
@@ -3677,11 +3677,11 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>54100</v>
+        <v>162362</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>grilled  venison burgers</t>
+          <t>almost instant and always fabulous grilled cheese</t>
         </is>
       </c>
     </row>
@@ -3702,11 +3702,11 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>99024</v>
+        <v>293262</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>smoked  salmon  cracker spread</t>
+          <t>art s funky grilled cheese</t>
         </is>
       </c>
     </row>
@@ -3727,11 +3727,11 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>107699</v>
+        <v>381040</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>afterburner chili</t>
         </is>
       </c>
     </row>
@@ -3752,11 +3752,11 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>108414</v>
+        <v>98670</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>jiffy  roasted corn and jalapeno cornbread</t>
+          <t>ancho chile and citrus ketchup</t>
         </is>
       </c>
     </row>
@@ -3777,11 +3777,11 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>43026</v>
+        <v>366021</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>chile rellenos</t>
+          <t>abuelito wato s grilled cheese</t>
         </is>
       </c>
     </row>
@@ -3802,11 +3802,11 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>31490</v>
+        <v>334501</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>a bit different  breakfast pizza</t>
+          <t>sannich  in soup</t>
         </is>
       </c>
     </row>
@@ -3827,11 +3827,11 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42522</v>
+        <v>106116</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>alton brown s cuban sandwich</t>
         </is>
       </c>
     </row>
@@ -3852,11 +3852,11 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>38276</v>
+        <v>429764</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>now and later  vegetarian empanadas</t>
+          <t>a pitcher of mojitos</t>
         </is>
       </c>
     </row>
@@ -3877,11 +3877,11 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>83133</v>
+        <v>185088</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>10 minute baked ziti</t>
         </is>
       </c>
     </row>
@@ -3902,11 +3902,11 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>44045</v>
+        <v>306168</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>mennonite  corn fritters</t>
+          <t>412 broccoli casserole</t>
         </is>
       </c>
     </row>
@@ -3927,11 +3927,11 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>87098</v>
+        <v>24470</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>homemade  vegetable soup from a can</t>
+          <t>dipstir  crock pot dip</t>
         </is>
       </c>
     </row>
@@ -3977,11 +3977,11 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>32169</v>
+        <v>429764</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>a pitcher of mojitos</t>
         </is>
       </c>
     </row>
@@ -4002,11 +4002,11 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>100870</v>
+        <v>185088</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>leftovers  spaghetti sauce</t>
+          <t>10 minute baked ziti</t>
         </is>
       </c>
     </row>
@@ -4027,11 +4027,11 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>35173</v>
+        <v>24514</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>italian  gut busters</t>
+          <t>1 000 artichoke hearts</t>
         </is>
       </c>
     </row>
@@ -4052,11 +4052,11 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>107699</v>
+        <v>257409</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>the mooch     zucchini sandwich</t>
         </is>
       </c>
     </row>
@@ -4077,11 +4077,11 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>35653</v>
+        <v>140855</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>make it your way  shortcakes</t>
+          <t>meal in a bowl   guacamole salad</t>
         </is>
       </c>
     </row>
@@ -4102,11 +4102,11 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>53402</v>
+        <v>429764</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>killer  lasagna</t>
+          <t>a pitcher of mojitos</t>
         </is>
       </c>
     </row>
@@ -4127,11 +4127,11 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>93958</v>
+        <v>361181</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>i yam what i yam  muffins</t>
+          <t>apple pan dowdy</t>
         </is>
       </c>
     </row>
@@ -4152,11 +4152,11 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>75452</v>
+        <v>114061</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>beat this  banana bread</t>
+          <t>absolute perfection ginger spice cookies</t>
         </is>
       </c>
     </row>
@@ -4177,11 +4177,11 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>103948</v>
+        <v>298433</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>smells like sunday  chicken fricassee with meatballs</t>
+          <t>3 pepper chili</t>
         </is>
       </c>
     </row>
@@ -4202,11 +4202,11 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>58651</v>
+        <v>170336</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>1995 1st place  swedish spice cookies</t>
         </is>
       </c>
     </row>
@@ -4227,11 +4227,11 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>93958</v>
+        <v>276547</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>i yam what i yam  muffins</t>
+          <t>7 layer dip   greek style</t>
         </is>
       </c>
     </row>
@@ -4252,11 +4252,11 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>93959</v>
+        <v>131967</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>i yam what i yam two  muffins</t>
+          <t>a little bite of the mediterranean</t>
         </is>
       </c>
     </row>
@@ -4277,11 +4277,11 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>23933</v>
+        <v>353785</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>chinese  candy</t>
+          <t>artichoke pesto hummus</t>
         </is>
       </c>
     </row>
@@ -4302,11 +4302,11 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>93249</v>
+        <v>331834</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>grilled  ranch bread</t>
+          <t>apple spice hummus</t>
         </is>
       </c>
     </row>
@@ -4327,11 +4327,11 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>111875</v>
+        <v>224837</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>arayes  mini meat calzones</t>
         </is>
       </c>
     </row>
@@ -4352,11 +4352,11 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>23850</v>
+        <v>45894</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>7 layer mediterranean dip  with hummus</t>
         </is>
       </c>
     </row>
@@ -4377,11 +4377,11 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>107699</v>
+        <v>353785</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>artichoke pesto hummus</t>
         </is>
       </c>
     </row>
@@ -4402,11 +4402,11 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>32169</v>
+        <v>276547</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>7 layer dip   greek style</t>
         </is>
       </c>
     </row>
@@ -4427,11 +4427,11 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>35653</v>
+        <v>224837</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>make it your way  shortcakes</t>
+          <t>arayes  mini meat calzones</t>
         </is>
       </c>
     </row>
@@ -4452,11 +4452,11 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>137739</v>
+        <v>131967</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>arriba   baked winter squash mexican style</t>
+          <t>a little bite of the mediterranean</t>
         </is>
       </c>
     </row>
@@ -4477,11 +4477,11 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>38276</v>
+        <v>131967</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>now and later  vegetarian empanadas</t>
+          <t>a little bite of the mediterranean</t>
         </is>
       </c>
     </row>
@@ -4502,11 +4502,11 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>35653</v>
+        <v>447262</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>make it your way  shortcakes</t>
+          <t>aquagrill s falafel crusted salmon</t>
         </is>
       </c>
     </row>
@@ -4527,11 +4527,11 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>35964</v>
+        <v>353785</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>artichoke pesto hummus</t>
         </is>
       </c>
     </row>
@@ -4552,11 +4552,11 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>108414</v>
+        <v>276547</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>jiffy  roasted corn and jalapeno cornbread</t>
+          <t>7 layer dip   greek style</t>
         </is>
       </c>
     </row>
@@ -4577,11 +4577,11 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>93958</v>
+        <v>224837</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>i yam what i yam  muffins</t>
+          <t>arayes  mini meat calzones</t>
         </is>
       </c>
     </row>
@@ -4602,11 +4602,11 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>22123</v>
+        <v>407747</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>i don t feel like cooking tonight  casserole</t>
+          <t>5 spice tea</t>
         </is>
       </c>
     </row>
@@ -4627,11 +4627,11 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>112140</v>
+        <v>369670</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>all in the kitchen  chili</t>
+          <t>applemint iced tea</t>
         </is>
       </c>
     </row>
@@ -4652,11 +4652,11 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>39959</v>
+        <v>144405</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>arnold palmer</t>
         </is>
       </c>
     </row>
@@ -4677,11 +4677,11 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>63593</v>
+        <v>378974</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>more  more    apple pear jigglers</t>
+          <t>apple ginger mint iced tea</t>
         </is>
       </c>
     </row>
@@ -4702,11 +4702,11 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>58224</v>
+        <v>507314</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>armenian iced tea</t>
         </is>
       </c>
     </row>
@@ -4727,11 +4727,11 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>35653</v>
+        <v>325555</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>make it your way  shortcakes</t>
+          <t>apple spiced honey iced tea</t>
         </is>
       </c>
     </row>
@@ -4752,11 +4752,11 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>35964</v>
+        <v>507314</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>armenian iced tea</t>
         </is>
       </c>
     </row>
@@ -4777,11 +4777,11 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>39959</v>
+        <v>429317</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>anytime lemon iced tea</t>
         </is>
       </c>
     </row>
@@ -4802,11 +4802,11 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>76808</v>
+        <v>378974</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>apple ginger mint iced tea</t>
         </is>
       </c>
     </row>
@@ -4827,11 +4827,11 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>32169</v>
+        <v>172240</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>apple iced tea</t>
         </is>
       </c>
     </row>
@@ -4852,11 +4852,11 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>59389</v>
+        <v>507314</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>alouette  potatoes</t>
+          <t>armenian iced tea</t>
         </is>
       </c>
     </row>
@@ -4877,11 +4877,11 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>93958</v>
+        <v>350240</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>i yam what i yam  muffins</t>
+          <t>acadia s tropical iced tea</t>
         </is>
       </c>
     </row>
@@ -4902,11 +4902,11 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>37073</v>
+        <v>292452</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>fried  potatoes</t>
+          <t>arnold palmer  also called half and half</t>
         </is>
       </c>
     </row>
@@ -4927,11 +4927,11 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>108414</v>
+        <v>136231</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>jiffy  roasted corn and jalapeno cornbread</t>
+          <t>i am tired of living   cocktail</t>
         </is>
       </c>
     </row>
@@ -4952,11 +4952,11 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>63593</v>
+        <v>407747</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>more  more    apple pear jigglers</t>
+          <t>5 spice tea</t>
         </is>
       </c>
     </row>
@@ -4977,11 +4977,11 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>111875</v>
+        <v>423880</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>10 second mango yogurt smoothie</t>
         </is>
       </c>
     </row>
@@ -5002,11 +5002,11 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>83873</v>
+        <v>415955</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>crispy crunchy  chicken</t>
+          <t>apricot  mango and blueberry smoothie</t>
         </is>
       </c>
     </row>
@@ -5027,11 +5027,11 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>35964</v>
+        <v>204114</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>a berry good banana smoothie</t>
         </is>
       </c>
     </row>
@@ -5052,11 +5052,11 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>63593</v>
+        <v>116468</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>more  more    apple pear jigglers</t>
+          <t>apricot banana smoothie</t>
         </is>
       </c>
     </row>
@@ -5077,11 +5077,11 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>112959</v>
+        <v>230957</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>apple banana smoothie</t>
         </is>
       </c>
     </row>
@@ -5102,11 +5102,11 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>111875</v>
+        <v>415955</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>apricot  mango and blueberry smoothie</t>
         </is>
       </c>
     </row>
@@ -5127,11 +5127,11 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>95926</v>
+        <v>316470</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>creamsicle  smoothie</t>
         </is>
       </c>
     </row>
@@ -5152,11 +5152,11 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>112959</v>
+        <v>423880</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>10 second mango yogurt smoothie</t>
         </is>
       </c>
     </row>
@@ -5177,11 +5177,11 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>63593</v>
+        <v>111875</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>more  more    apple pear jigglers</t>
+          <t>the elvis  smoothie</t>
         </is>
       </c>
     </row>
@@ -5202,11 +5202,11 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>83062</v>
+        <v>162376</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>spicy  banana bread</t>
+          <t>a healthy chocolate smoothie</t>
         </is>
       </c>
     </row>
@@ -5227,11 +5227,11 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>111875</v>
+        <v>156577</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>asian dump cake</t>
         </is>
       </c>
     </row>
@@ -5252,11 +5252,11 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>107699</v>
+        <v>112725</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>anemic build your blood with honey and bananas</t>
         </is>
       </c>
     </row>
@@ -5277,11 +5277,11 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>39363</v>
+        <v>24596</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>asian chicken salad with roasted peanuts</t>
         </is>
       </c>
     </row>
@@ -5302,11 +5302,11 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>35964</v>
+        <v>275131</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>amazing basil chicken   low fat</t>
         </is>
       </c>
     </row>
@@ -5327,11 +5327,11 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>58651</v>
+        <v>111875</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>the elvis  smoothie</t>
         </is>
       </c>
     </row>
@@ -5352,11 +5352,11 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>83873</v>
+        <v>137434</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>crispy crunchy  chicken</t>
+          <t>creamy  chicken curry</t>
         </is>
       </c>
     </row>
@@ -5377,11 +5377,11 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>63986</v>
+        <v>241413</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>chicken lickin  good  pork chops</t>
+          <t>apple curry chicken</t>
         </is>
       </c>
     </row>
@@ -5402,11 +5402,11 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>32169</v>
+        <v>192064</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>amazing chicken curry</t>
         </is>
       </c>
     </row>
@@ -5427,11 +5427,11 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>42570</v>
+        <v>123449</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>aromatic chicken curry</t>
         </is>
       </c>
     </row>
@@ -5452,11 +5452,11 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>98930</v>
+        <v>367586</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>steamed  chicken cutlets in packages</t>
+          <t>a taste of africa   kenyan chicken curry</t>
         </is>
       </c>
     </row>
@@ -5477,11 +5477,11 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>83873</v>
+        <v>455721</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>crispy crunchy  chicken</t>
+          <t>african chicken curry</t>
         </is>
       </c>
     </row>
@@ -5502,11 +5502,11 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>98930</v>
+        <v>305069</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>steamed  chicken cutlets in packages</t>
+          <t>apple curry glazed chicken</t>
         </is>
       </c>
     </row>
@@ -5527,11 +5527,11 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>32169</v>
+        <v>123449</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>aromatic chicken curry</t>
         </is>
       </c>
     </row>
@@ -5552,11 +5552,11 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>42570</v>
+        <v>362224</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>african chicken curry in rich palm oil</t>
         </is>
       </c>
     </row>
@@ -5577,11 +5577,11 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>103948</v>
+        <v>58584</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>smells like sunday  chicken fricassee with meatballs</t>
+          <t>angela s chicken  tikka masala</t>
         </is>
       </c>
     </row>
@@ -5602,11 +5602,11 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>107229</v>
+        <v>241413</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>apple curry chicken</t>
         </is>
       </c>
     </row>
@@ -5627,11 +5627,11 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>30131</v>
+        <v>367586</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>momma s special  marinade</t>
+          <t>a taste of africa   kenyan chicken curry</t>
         </is>
       </c>
     </row>
@@ -5652,11 +5652,11 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>32169</v>
+        <v>293689</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>apple   mango curried chicken salad</t>
         </is>
       </c>
     </row>
@@ -5677,11 +5677,11 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>98930</v>
+        <v>458685</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>steamed  chicken cutlets in packages</t>
+          <t>5 points plus   pineapple and honey glazed chicken</t>
         </is>
       </c>
     </row>
@@ -5702,11 +5702,11 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>42570</v>
+        <v>104967</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>20 minute posole</t>
         </is>
       </c>
     </row>
@@ -5727,11 +5727,11 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>111875</v>
+        <v>290853</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>amazing watermelon greek salad with feta</t>
         </is>
       </c>
     </row>
@@ -5752,11 +5752,11 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>81185</v>
+        <v>326643</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>mock a mole   low fat guacamole</t>
+          <t>agua fresca</t>
         </is>
       </c>
     </row>
@@ -5777,11 +5777,11 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>39959</v>
+        <v>88849</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>agua de sandia  watermelon beverage</t>
         </is>
       </c>
     </row>
@@ -5802,11 +5802,11 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>54100</v>
+        <v>183491</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>grilled  venison burgers</t>
+          <t>apricot fizz</t>
         </is>
       </c>
     </row>
@@ -5827,11 +5827,11 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>24701</v>
+        <v>73280</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>agua fresca de melon  watermelon sparkling water</t>
         </is>
       </c>
     </row>
@@ -5852,11 +5852,11 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>111875</v>
+        <v>88849</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>agua de sandia  watermelon beverage</t>
         </is>
       </c>
     </row>
@@ -5877,11 +5877,11 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>39959</v>
+        <v>73280</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>agua fresca de melon  watermelon sparkling water</t>
         </is>
       </c>
     </row>
@@ -5902,11 +5902,11 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>24701</v>
+        <v>319518</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>amanda s favorite minty watermelon salad</t>
         </is>
       </c>
     </row>
@@ -5927,11 +5927,11 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>45859</v>
+        <v>50414</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>truth serum  margaritas</t>
+          <t>a refreshing salad to usher in summer</t>
         </is>
       </c>
     </row>
@@ -5952,11 +5952,11 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>24478</v>
+        <v>290853</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>marijuana  vinegar</t>
+          <t>amazing watermelon greek salad with feta</t>
         </is>
       </c>
     </row>
@@ -5977,11 +5977,11 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>111875</v>
+        <v>50414</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>a refreshing salad to usher in summer</t>
         </is>
       </c>
     </row>
@@ -6002,11 +6002,11 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>62368</v>
+        <v>430263</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>african on acid</t>
         </is>
       </c>
     </row>
@@ -6027,11 +6027,11 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>47366</v>
+        <v>281409</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>forgotten  minestrone</t>
+          <t>absolutely the best southern sweet tea</t>
         </is>
       </c>
     </row>
@@ -6052,11 +6052,11 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>39363</v>
+        <v>226710</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>apple and kiwi juice</t>
         </is>
       </c>
     </row>
@@ -6077,11 +6077,11 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>107699</v>
+        <v>188116</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>apple carrot juice</t>
         </is>
       </c>
     </row>
@@ -6102,11 +6102,11 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>100870</v>
+        <v>25400</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>leftovers  spaghetti sauce</t>
+          <t>alexander s spaghetti carbonara</t>
         </is>
       </c>
     </row>
@@ -6127,11 +6127,11 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>83950</v>
+        <v>160696</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>real  italian bolognese sauce</t>
+          <t>ally style pasta carbonara</t>
         </is>
       </c>
     </row>
@@ -6152,11 +6152,11 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>38276</v>
+        <v>337364</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>now and later  vegetarian empanadas</t>
+          <t>artichoke heart and anchovy carbonara</t>
         </is>
       </c>
     </row>
@@ -6177,11 +6177,11 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>137739</v>
+        <v>140173</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>arriba   baked winter squash mexican style</t>
+          <t>15 minute shrimp carbonara fettuccine</t>
         </is>
       </c>
     </row>
@@ -6202,11 +6202,11 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>24701</v>
+        <v>135763</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>asparagus carbonara</t>
         </is>
       </c>
     </row>
@@ -6227,11 +6227,11 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>100870</v>
+        <v>25400</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>leftovers  spaghetti sauce</t>
+          <t>alexander s spaghetti carbonara</t>
         </is>
       </c>
     </row>
@@ -6252,11 +6252,11 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>60219</v>
+        <v>337364</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>mexican pasta</t>
+          <t>artichoke heart and anchovy carbonara</t>
         </is>
       </c>
     </row>
@@ -6277,11 +6277,11 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>59952</v>
+        <v>352157</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>global gourmet  taco casserole</t>
+          <t>arrabiatta pork meatball spaghetti</t>
         </is>
       </c>
     </row>
@@ -6302,11 +6302,11 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>33606</v>
+        <v>151748</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>aglio e olio   spaghetti with garlic and olive oil</t>
         </is>
       </c>
     </row>
@@ -6327,11 +6327,11 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>84797</v>
+        <v>160696</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>ally style pasta carbonara</t>
         </is>
       </c>
     </row>
@@ -6352,11 +6352,11 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>100870</v>
+        <v>25400</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>leftovers  spaghetti sauce</t>
+          <t>alexander s spaghetti carbonara</t>
         </is>
       </c>
     </row>
@@ -6377,11 +6377,11 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>83950</v>
+        <v>128840</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>real  italian bolognese sauce</t>
+          <t>t w a  meatballs for spaghetti</t>
         </is>
       </c>
     </row>
@@ -6402,11 +6402,11 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>60219</v>
+        <v>354021</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>mexican pasta</t>
+          <t>asian creation</t>
         </is>
       </c>
     </row>
@@ -6427,11 +6427,11 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>64045</v>
+        <v>16356</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>some like it hot</t>
+          <t>amazing spaghetti with seafood sauce</t>
         </is>
       </c>
     </row>
@@ -6452,11 +6452,11 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>81185</v>
+        <v>420978</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>mock a mole   low fat guacamole</t>
+          <t>asian spaghetti</t>
         </is>
       </c>
     </row>
@@ -6477,11 +6477,11 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>84797</v>
+        <v>306061</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>arroz brasileiro rice with tomatoes and onions</t>
         </is>
       </c>
     </row>
@@ -6502,11 +6502,11 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>60219</v>
+        <v>226661</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>mexican pasta</t>
+          <t>arroz con cebolla  rice with onions</t>
         </is>
       </c>
     </row>
@@ -6527,11 +6527,11 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>35595</v>
+        <v>184156</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>pour over anything  mushroom gravy</t>
+          <t>arroz con pollo  rice with chicken</t>
         </is>
       </c>
     </row>
@@ -6552,11 +6552,11 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>64045</v>
+        <v>121665</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>some like it hot</t>
+          <t>arroz con pollo  chicken with rice</t>
         </is>
       </c>
     </row>
@@ -6577,11 +6577,11 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>103948</v>
+        <v>255464</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>smells like sunday  chicken fricassee with meatballs</t>
+          <t>arroz moro  white rice with cuban black beans</t>
         </is>
       </c>
     </row>
@@ -6602,11 +6602,11 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>107229</v>
+        <v>255464</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>arroz moro  white rice with cuban black beans</t>
         </is>
       </c>
     </row>
@@ -6627,11 +6627,11 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>64302</v>
+        <v>112225</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>red  macaroni salad</t>
+          <t>arroz central cafe  central cafe rice</t>
         </is>
       </c>
     </row>
@@ -6652,11 +6652,11 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>81185</v>
+        <v>376862</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>mock a mole   low fat guacamole</t>
+          <t>adobo rice with beans and tomato</t>
         </is>
       </c>
     </row>
@@ -6677,11 +6677,11 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>60219</v>
+        <v>467378</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>mexican pasta</t>
+          <t>asian inspired rice</t>
         </is>
       </c>
     </row>
@@ -6702,11 +6702,11 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>59389</v>
+        <v>299267</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>alouette  potatoes</t>
+          <t>arroz verde  green rice</t>
         </is>
       </c>
     </row>
@@ -6727,11 +6727,11 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>54272</v>
+        <v>121665</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>arroz con pollo  chicken with rice</t>
         </is>
       </c>
     </row>
@@ -6752,11 +6752,11 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>103948</v>
+        <v>269835</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>smells like sunday  chicken fricassee with meatballs</t>
+          <t>ami s zarda</t>
         </is>
       </c>
     </row>
@@ -6777,11 +6777,11 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>35595</v>
+        <v>410116</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>pour over anything  mushroom gravy</t>
+          <t>arroz con  crema rice with sour cream</t>
         </is>
       </c>
     </row>
@@ -6802,11 +6802,11 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>58224</v>
+        <v>62887</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>albuquerque salad</t>
         </is>
       </c>
     </row>
@@ -6827,11 +6827,11 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>64045</v>
+        <v>212986</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>some like it hot</t>
+          <t>aash e shalgham</t>
         </is>
       </c>
     </row>
@@ -6852,11 +6852,11 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>33606</v>
+        <v>425432</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>a summer chopped salad</t>
         </is>
       </c>
     </row>
@@ -6877,11 +6877,11 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>63793</v>
+        <v>14263</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>asian summer salad</t>
         </is>
       </c>
     </row>
@@ -6902,11 +6902,11 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>64302</v>
+        <v>50414</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>red  macaroni salad</t>
+          <t>a refreshing salad to usher in summer</t>
         </is>
       </c>
     </row>
@@ -6927,11 +6927,11 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>35653</v>
+        <v>239638</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>make it your way  shortcakes</t>
+          <t>asian summer pasta salad</t>
         </is>
       </c>
     </row>
@@ -6952,11 +6952,11 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>33165</v>
+        <v>307191</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>i can t believe it s low fat  creamy potato salad</t>
+          <t>asparagus and spring onion potato salad</t>
         </is>
       </c>
     </row>
@@ -6977,11 +6977,11 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>33606</v>
+        <v>429158</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>aphrodite salad</t>
         </is>
       </c>
     </row>
@@ -7002,11 +7002,11 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>64302</v>
+        <v>374703</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>red  macaroni salad</t>
+          <t>tasty s    the power of flower7 salad</t>
         </is>
       </c>
     </row>
@@ -7027,11 +7027,11 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>35653</v>
+        <v>8313</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>make it your way  shortcakes</t>
+          <t>apple   fennel salad with honey celery seed dressing</t>
         </is>
       </c>
     </row>
@@ -7052,11 +7052,11 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>63793</v>
+        <v>50414</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>a refreshing salad to usher in summer</t>
         </is>
       </c>
     </row>
@@ -7077,11 +7077,11 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>84797</v>
+        <v>122781</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>almost rainbow salad</t>
         </is>
       </c>
     </row>
@@ -7102,11 +7102,11 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>108804</v>
+        <v>35824</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>put down your fork   tuna and bean salad</t>
+          <t>ambrosia with acini di pepe</t>
         </is>
       </c>
     </row>
@@ -7127,11 +7127,11 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>137739</v>
+        <v>477887</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>arriba   baked winter squash mexican style</t>
+          <t>apple  chicken and stilton salad</t>
         </is>
       </c>
     </row>
@@ -7152,11 +7152,11 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>97052</v>
+        <v>316454</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>off the cob  freezer corn</t>
+          <t>a lighter broccoli salad</t>
         </is>
       </c>
     </row>
@@ -7177,11 +7177,11 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>94710</v>
+        <v>382371</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>italian  fries</t>
+          <t>asian crunchy peanut chicken salad</t>
         </is>
       </c>
     </row>
@@ -7202,11 +7202,11 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>54100</v>
+        <v>299653</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>grilled  venison burgers</t>
+          <t>asparagus and potato tart   jamie oliver</t>
         </is>
       </c>
     </row>
@@ -7227,11 +7227,11 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>38276</v>
+        <v>139295</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>now and later  vegetarian empanadas</t>
+          <t>aji de carne    bolivian pork and bananas</t>
         </is>
       </c>
     </row>
@@ -7252,11 +7252,11 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>112959</v>
+        <v>473574</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>6 point carne guisada  latin beef stew</t>
         </is>
       </c>
     </row>
@@ -7277,11 +7277,11 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>35173</v>
+        <v>279052</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>italian  gut busters</t>
+          <t>cheesy  vegan lasagna</t>
         </is>
       </c>
     </row>
@@ -7302,11 +7302,11 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>53402</v>
+        <v>483959</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>killer  lasagna</t>
+          <t>acadia s vegan cremesicle</t>
         </is>
       </c>
     </row>
@@ -7327,11 +7327,11 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>43026</v>
+        <v>496766</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>chile rellenos</t>
+          <t>take me to spain  tortilla espanola  5fix</t>
         </is>
       </c>
     </row>
@@ -7352,11 +7352,11 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>112959</v>
+        <v>238046</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>amazing vegetarian or vegan lasagna</t>
         </is>
       </c>
     </row>
@@ -7377,11 +7377,11 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>23850</v>
+        <v>279052</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>cheesy  vegan lasagna</t>
         </is>
       </c>
     </row>
@@ -7402,11 +7402,11 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>53402</v>
+        <v>496766</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>killer  lasagna</t>
+          <t>take me to spain  tortilla espanola  5fix</t>
         </is>
       </c>
     </row>
@@ -7427,11 +7427,11 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>38276</v>
+        <v>257354</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>now and later  vegetarian empanadas</t>
+          <t>amaretto spiked chocolate mousse  vegan</t>
         </is>
       </c>
     </row>
@@ -7452,11 +7452,11 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>25274</v>
+        <v>298414</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>alfajores de maizena</t>
         </is>
       </c>
     </row>
@@ -7477,11 +7477,11 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>111875</v>
+        <v>332651</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>1 2 3 balsamic chicken</t>
         </is>
       </c>
     </row>
@@ -7502,11 +7502,11 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>64302</v>
+        <v>253375</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>red  macaroni salad</t>
+          <t>apple cherry crisp</t>
         </is>
       </c>
     </row>
@@ -7527,11 +7527,11 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>32169</v>
+        <v>195990</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>99 calorie broccoli soup</t>
         </is>
       </c>
     </row>
@@ -7552,11 +7552,11 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>59632</v>
+        <v>241630</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>kitchen sink  egg bake</t>
+          <t>almost as simple pasta with parmesan  herbs  and fresh garlic</t>
         </is>
       </c>
     </row>
@@ -7577,11 +7577,11 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>47366</v>
+        <v>455547</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>forgotten  minestrone</t>
+          <t>african sweet potato stew  vegetarian</t>
         </is>
       </c>
     </row>
@@ -7602,11 +7602,11 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>44123</v>
+        <v>535371</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>george s at the cove  black bean soup</t>
+          <t>almond flour blueberry muffins best ever</t>
         </is>
       </c>
     </row>
@@ -7627,11 +7627,11 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>39947</v>
+        <v>351153</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>sugared grapes</t>
+          <t>apple breakfast bar  gluten free   vegan options</t>
         </is>
       </c>
     </row>
@@ -7652,11 +7652,11 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>24478</v>
+        <v>451395</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>marijuana  vinegar</t>
+          <t>ameraussie s gluten free oatmeal pancakes</t>
         </is>
       </c>
     </row>
@@ -7677,11 +7677,11 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>49262</v>
+        <v>210873</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>easiest ever  hollandaise sauce</t>
+          <t>arrowroot biscuits</t>
         </is>
       </c>
     </row>
@@ -7702,11 +7702,11 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>30300</v>
+        <v>277717</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>amazing cinnamon apple rice stuffed chicken gfcf</t>
         </is>
       </c>
     </row>
@@ -7727,11 +7727,11 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>44123</v>
+        <v>505210</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>george s at the cove  black bean soup</t>
+          <t>apple and pecan muffins  gluten free or not</t>
         </is>
       </c>
     </row>
@@ -7752,11 +7752,11 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>23850</v>
+        <v>147284</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>apple crumble  gluten  dairy and egg free</t>
         </is>
       </c>
     </row>
@@ -7777,11 +7777,11 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>30300</v>
+        <v>175912</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>always tastes great  gluten free easy cake with variations</t>
         </is>
       </c>
     </row>
@@ -7802,11 +7802,11 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>107229</v>
+        <v>360337</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>any kind muffins  gluten free</t>
         </is>
       </c>
     </row>
@@ -7827,11 +7827,11 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>63793</v>
+        <v>445253</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>apple and hazelnut pancakes</t>
         </is>
       </c>
     </row>
@@ -7852,11 +7852,11 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>59952</v>
+        <v>505210</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>global gourmet  taco casserole</t>
+          <t>apple and pecan muffins  gluten free or not</t>
         </is>
       </c>
     </row>
@@ -7877,11 +7877,11 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>99024</v>
+        <v>323576</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>smoked  salmon  cracker spread</t>
+          <t>apple and celery salad</t>
         </is>
       </c>
     </row>
@@ -7902,11 +7902,11 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>54272</v>
+        <v>386928</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>asian chicken and lettuce wraps</t>
         </is>
       </c>
     </row>
@@ -7927,11 +7927,11 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>76808</v>
+        <v>147284</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>apple crumble  gluten  dairy and egg free</t>
         </is>
       </c>
     </row>
@@ -7952,11 +7952,11 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>112140</v>
+        <v>170081</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>all in the kitchen  chili</t>
+          <t>after dinner wontons</t>
         </is>
       </c>
     </row>
@@ -7977,11 +7977,11 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>76808</v>
+        <v>304490</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>apricot noodle kugel</t>
         </is>
       </c>
     </row>
@@ -8002,11 +8002,11 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>30300</v>
+        <v>428704</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>apricot and pistachio baklava with orange cardamom syrup</t>
         </is>
       </c>
     </row>
@@ -8027,11 +8027,11 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>35964</v>
+        <v>486326</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>apple cheesecake</t>
         </is>
       </c>
     </row>
@@ -8052,11 +8052,11 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>32169</v>
+        <v>403815</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>alpine mint hot chocolate</t>
         </is>
       </c>
     </row>
@@ -8077,11 +8077,11 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>63793</v>
+        <v>409492</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>apple turnovers</t>
         </is>
       </c>
     </row>
@@ -8102,11 +8102,11 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>87098</v>
+        <v>254521</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>homemade  vegetable soup from a can</t>
+          <t>25 minute chicken noodle soup</t>
         </is>
       </c>
     </row>
@@ -8127,11 +8127,11 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>30300</v>
+        <v>231784</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>another loose meat  maid rite  recipe</t>
         </is>
       </c>
     </row>
@@ -8152,11 +8152,11 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>63793</v>
+        <v>182122</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>creamy  broccoli soup</t>
         </is>
       </c>
     </row>
@@ -8177,11 +8177,11 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>32169</v>
+        <v>167433</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>a very different chicken and stuffing</t>
         </is>
       </c>
     </row>
@@ -8202,11 +8202,11 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>100870</v>
+        <v>87098</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>leftovers  spaghetti sauce</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -8227,11 +8227,11 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>63986</v>
+        <v>106505</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>chicken lickin  good  pork chops</t>
+          <t>alton brown s haggis</t>
         </is>
       </c>
     </row>
@@ -8252,11 +8252,11 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>99024</v>
+        <v>181425</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>smoked  salmon  cracker spread</t>
+          <t>4 step zesty garlic chicken   veggies</t>
         </is>
       </c>
     </row>
@@ -8277,11 +8277,11 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>43164</v>
+        <v>314026</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>mr  grant you took half veal prince orloff</t>
+          <t>asian style barbecue pork loin sirloin chops</t>
         </is>
       </c>
     </row>
@@ -8302,11 +8302,11 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>112140</v>
+        <v>19953</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>all in the kitchen  chili</t>
+          <t>lighter  hamburger stroganoff</t>
         </is>
       </c>
     </row>
@@ -8327,11 +8327,11 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>100870</v>
+        <v>404666</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>leftovers  spaghetti sauce</t>
+          <t>another beef slow cooker pot roast    hubby   kids favorite</t>
         </is>
       </c>
     </row>
@@ -8352,11 +8352,11 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>35173</v>
+        <v>221049</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>italian  gut busters</t>
+          <t>leftover  lo mein for two</t>
         </is>
       </c>
     </row>
@@ -8377,11 +8377,11 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>58224</v>
+        <v>296248</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>almond sandwich cookies</t>
         </is>
       </c>
     </row>
@@ -8402,11 +8402,11 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>95926</v>
+        <v>103114</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>allegheny applesauce bread</t>
         </is>
       </c>
     </row>
@@ -8427,11 +8427,11 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>63793</v>
+        <v>151775</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>100  honey whole wheat cracked wheat bread</t>
         </is>
       </c>
     </row>
@@ -8452,11 +8452,11 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>107699</v>
+        <v>120413</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>al roker s spicy chicken wings</t>
         </is>
       </c>
     </row>
@@ -8477,11 +8477,11 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>35173</v>
+        <v>296248</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>italian  gut busters</t>
+          <t>almond sandwich cookies</t>
         </is>
       </c>
     </row>
@@ -8502,11 +8502,11 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>39959</v>
+        <v>28723</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>a yam a day</t>
         </is>
       </c>
     </row>
@@ -8527,11 +8527,11 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>95926</v>
+        <v>259784</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>you can t eat just one  ice box cookies</t>
         </is>
       </c>
     </row>
@@ -8552,11 +8552,11 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>87098</v>
+        <v>136602</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>homemade  vegetable soup from a can</t>
+          <t>500 margarita bread</t>
         </is>
       </c>
     </row>
@@ -8577,11 +8577,11 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>63793</v>
+        <v>151775</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>100  honey whole wheat cracked wheat bread</t>
         </is>
       </c>
     </row>
@@ -8602,11 +8602,11 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>107699</v>
+        <v>312259</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>any flavor cookies    similar to lofthouse cookies   copycat</t>
         </is>
       </c>
     </row>
@@ -8627,11 +8627,11 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>100870</v>
+        <v>152394</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>leftovers  spaghetti sauce</t>
+          <t>albert s soy sauce steak</t>
         </is>
       </c>
     </row>
@@ -8652,11 +8652,11 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>35964</v>
+        <v>264483</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>apple cream cheese pie</t>
         </is>
       </c>
     </row>
@@ -8677,11 +8677,11 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>58651</v>
+        <v>282898</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>apple cake with warm caramel pecan sauce</t>
         </is>
       </c>
     </row>
@@ -8702,11 +8702,11 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>43164</v>
+        <v>170336</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>mr  grant you took half veal prince orloff</t>
+          <t>1995 1st place  swedish spice cookies</t>
         </is>
       </c>
     </row>
@@ -8752,11 +8752,11 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>111875</v>
+        <v>158685</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>5 minute pita pizza</t>
         </is>
       </c>
     </row>
@@ -8777,11 +8777,11 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>112959</v>
+        <v>174469</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>off the boat  sicilian pasta sauce</t>
         </is>
       </c>
     </row>
@@ -8802,11 +8802,11 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>30131</v>
+        <v>225253</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>momma s special  marinade</t>
+          <t>artichoke and garbanzo stew</t>
         </is>
       </c>
     </row>
@@ -8827,11 +8827,11 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>93249</v>
+        <v>99563</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>grilled  ranch bread</t>
+          <t>amazing stuffed capsicum</t>
         </is>
       </c>
     </row>
@@ -8877,11 +8877,11 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>112959</v>
+        <v>467795</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>beefy  seitan log</t>
         </is>
       </c>
     </row>
@@ -8902,11 +8902,11 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>23850</v>
+        <v>95534</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>da best  chicago style italian beef</t>
         </is>
       </c>
     </row>
@@ -8927,11 +8927,11 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>25274</v>
+        <v>158685</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>5 minute pita pizza</t>
         </is>
       </c>
     </row>
@@ -8952,11 +8952,11 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>25775</v>
+        <v>225253</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>artichoke and garbanzo stew</t>
         </is>
       </c>
     </row>
@@ -8977,11 +8977,11 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>111875</v>
+        <v>508092</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>america s test kitchen ragu alla bolognese</t>
         </is>
       </c>
     </row>
@@ -9002,11 +9002,11 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>8559</v>
+        <v>291558</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>chinese  chop suey</t>
+          <t>adzuki bean bake</t>
         </is>
       </c>
     </row>
@@ -9027,11 +9027,11 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>103948</v>
+        <v>388723</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>smells like sunday  chicken fricassee with meatballs</t>
+          <t>arabian roast lamb fit for a king and queen  with spiced rice</t>
         </is>
       </c>
     </row>
@@ -9052,11 +9052,11 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>30300</v>
+        <v>27442</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>annato rice</t>
         </is>
       </c>
     </row>
@@ -9077,11 +9077,11 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>107699</v>
+        <v>17767</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>applesauce topped pork loin roast</t>
         </is>
       </c>
     </row>
@@ -9102,11 +9102,11 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>84797</v>
+        <v>489651</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>apples and cinnamon breakfast quinoa</t>
         </is>
       </c>
     </row>
@@ -9127,11 +9127,11 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>8559</v>
+        <v>173753</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>chinese  chop suey</t>
+          <t>african potato and collard green stew</t>
         </is>
       </c>
     </row>
@@ -9152,11 +9152,11 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>54272</v>
+        <v>353806</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>amaranth  quinoa  and corn chowder</t>
         </is>
       </c>
     </row>
@@ -9177,11 +9177,11 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>64045</v>
+        <v>466866</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>some like it hot</t>
+          <t>apple almond quinoa with curry vinaigrette</t>
         </is>
       </c>
     </row>
@@ -9202,11 +9202,11 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>35595</v>
+        <v>158578</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>pour over anything  mushroom gravy</t>
+          <t>a quinoa pilaf that you ll love</t>
         </is>
       </c>
     </row>
@@ -9227,11 +9227,11 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>112959</v>
+        <v>353806</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>amaranth  quinoa  and corn chowder</t>
         </is>
       </c>
     </row>
@@ -9252,11 +9252,11 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>108414</v>
+        <v>158578</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>jiffy  roasted corn and jalapeno cornbread</t>
+          <t>a quinoa pilaf that you ll love</t>
         </is>
       </c>
     </row>
@@ -9277,11 +9277,11 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>107229</v>
+        <v>528546</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>apple pie breakfast quinoa</t>
         </is>
       </c>
     </row>
@@ -9302,11 +9302,11 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>60219</v>
+        <v>472190</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>mexican pasta</t>
+          <t>asian fried quinoa delight</t>
         </is>
       </c>
     </row>
@@ -9327,11 +9327,11 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>32169</v>
+        <v>504125</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>asian quinoa salad</t>
         </is>
       </c>
     </row>
@@ -9352,11 +9352,11 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>60219</v>
+        <v>289610</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>mexican pasta</t>
+          <t>apple cinnamon quinoa   cereal</t>
         </is>
       </c>
     </row>
@@ -9377,11 +9377,11 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>43026</v>
+        <v>532472</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>chile rellenos</t>
+          <t>west african s finest  mafe</t>
         </is>
       </c>
     </row>
@@ -9402,11 +9402,11 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>76808</v>
+        <v>45473</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>a lighter quinoa stuffing</t>
         </is>
       </c>
     </row>
@@ -9427,11 +9427,11 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>52804</v>
+        <v>353806</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>amaranth  quinoa  and corn chowder</t>
         </is>
       </c>
     </row>
@@ -9452,11 +9452,11 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>108804</v>
+        <v>489651</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>put down your fork   tuna and bean salad</t>
+          <t>apples and cinnamon breakfast quinoa</t>
         </is>
       </c>
     </row>
@@ -9477,11 +9477,11 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>35595</v>
+        <v>16451</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>pour over anything  mushroom gravy</t>
+          <t>lite  stuffed mushrooms</t>
         </is>
       </c>
     </row>
@@ -9502,11 +9502,11 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>22123</v>
+        <v>354476</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>i don t feel like cooking tonight  casserole</t>
+          <t>acadia s mushrooms   onions</t>
         </is>
       </c>
     </row>
@@ -9527,11 +9527,11 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>25775</v>
+        <v>271012</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>a symphony of french chocolate truffles</t>
         </is>
       </c>
     </row>
@@ -9552,11 +9552,11 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>32169</v>
+        <v>408388</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>alouette stuffed mushrooms</t>
         </is>
       </c>
     </row>
@@ -9577,11 +9577,11 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>59534</v>
+        <v>258552</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>twisted american chop suey</t>
+          <t>amarula cream truffles  a homemade gift</t>
         </is>
       </c>
     </row>
@@ -9602,11 +9602,11 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>35595</v>
+        <v>354476</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>pour over anything  mushroom gravy</t>
+          <t>acadia s mushrooms   onions</t>
         </is>
       </c>
     </row>
@@ -9627,11 +9627,11 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>25775</v>
+        <v>399354</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>angel hair pasta with prosciutto and wild mushrooms</t>
         </is>
       </c>
     </row>
@@ -9652,11 +9652,11 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>32169</v>
+        <v>270982</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>asparagus and mushroom saute</t>
         </is>
       </c>
     </row>
@@ -9677,11 +9677,11 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>59952</v>
+        <v>177218</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>global gourmet  taco casserole</t>
+          <t>all day mushrooms</t>
         </is>
       </c>
     </row>
@@ -9702,11 +9702,11 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>64045</v>
+        <v>35595</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>some like it hot</t>
+          <t>pour over anything  mushroom gravy</t>
         </is>
       </c>
     </row>
@@ -9727,11 +9727,11 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>38276</v>
+        <v>306198</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>now and later  vegetarian empanadas</t>
+          <t>agnolotti al burro e salvia</t>
         </is>
       </c>
     </row>
@@ -9752,11 +9752,11 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>35595</v>
+        <v>134414</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>pour over anything  mushroom gravy</t>
+          <t>artichoke pasta casserole</t>
         </is>
       </c>
     </row>
@@ -9777,11 +9777,11 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>76808</v>
+        <v>51922</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>cream  of mushroom soup</t>
         </is>
       </c>
     </row>
@@ -9802,11 +9802,11 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>25775</v>
+        <v>164100</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>1 2 3 hash browns pie   k</t>
         </is>
       </c>
     </row>
@@ -9827,11 +9827,11 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>32169</v>
+        <v>258552</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>amarula cream truffles  a homemade gift</t>
         </is>
       </c>
     </row>
@@ -9852,11 +9852,11 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>59534</v>
+        <v>86727</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>twisted american chop suey</t>
+          <t>apple butternut squash soup</t>
         </is>
       </c>
     </row>
@@ -9877,11 +9877,11 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>23850</v>
+        <v>174382</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>almost fat free vegetarian butternut squash soup</t>
         </is>
       </c>
     </row>
@@ -9902,11 +9902,11 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>137739</v>
+        <v>357367</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>arriba   baked winter squash mexican style</t>
+          <t>alton brown s butternut squash soup</t>
         </is>
       </c>
     </row>
@@ -9927,11 +9927,11 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>24701</v>
+        <v>31835</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>1 squash dressing</t>
         </is>
       </c>
     </row>
@@ -9952,11 +9952,11 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>76808</v>
+        <v>405303</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>aromatic beef stew with butternut squash</t>
         </is>
       </c>
     </row>
@@ -9977,11 +9977,11 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>76808</v>
+        <v>174382</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>almost fat free vegetarian butternut squash soup</t>
         </is>
       </c>
     </row>
@@ -10002,11 +10002,11 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>24701</v>
+        <v>86727</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>apple butternut squash soup</t>
         </is>
       </c>
     </row>
@@ -10027,11 +10027,11 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>49262</v>
+        <v>218152</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>easiest ever  hollandaise sauce</t>
+          <t>angie s creamy squash soup</t>
         </is>
       </c>
     </row>
@@ -10052,11 +10052,11 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>23850</v>
+        <v>52835</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>apple and butternut squash bisque</t>
         </is>
       </c>
     </row>
@@ -10077,11 +10077,11 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>44123</v>
+        <v>211550</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>george s at the cove  black bean soup</t>
+          <t>asian comfort food  coconut curry chicken noodle soup</t>
         </is>
       </c>
     </row>
@@ -10102,11 +10102,11 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>60219</v>
+        <v>494527</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>mexican pasta</t>
+          <t>a simple tomato soup recipe  very vegan friendly</t>
         </is>
       </c>
     </row>
@@ -10127,11 +10127,11 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>83873</v>
+        <v>395888</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>crispy crunchy  chicken</t>
+          <t>a  butternut   acorn squash gratin</t>
         </is>
       </c>
     </row>
@@ -10152,11 +10152,11 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>137739</v>
+        <v>443680</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>arriba   baked winter squash mexican style</t>
+          <t>a  african bean soup</t>
         </is>
       </c>
     </row>
@@ -10177,11 +10177,11 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>41756</v>
+        <v>520940</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>souper  easy sweet   sour meatballs</t>
+          <t>asian vegetable soup with shrimp</t>
         </is>
       </c>
     </row>
@@ -10202,11 +10202,11 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>76808</v>
+        <v>18985</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>a different chicken dish</t>
         </is>
       </c>
     </row>
@@ -10227,11 +10227,11 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>107229</v>
+        <v>291228</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>amy s chicken casserole</t>
         </is>
       </c>
     </row>
@@ -10252,11 +10252,11 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>83873</v>
+        <v>474098</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>crispy crunchy  chicken</t>
+          <t>all the fixins curried chicken salad</t>
         </is>
       </c>
     </row>
@@ -10277,11 +10277,11 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>54272</v>
+        <v>153156</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>a picky eaters  chicken casserole</t>
         </is>
       </c>
     </row>
@@ -10302,11 +10302,11 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>63986</v>
+        <v>241579</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>chicken lickin  good  pork chops</t>
+          <t>amish style chicken and corn soup  ww core</t>
         </is>
       </c>
     </row>
@@ -10327,11 +10327,11 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>98930</v>
+        <v>246617</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>steamed  chicken cutlets in packages</t>
+          <t>leftover  chicken  spinach and yellow pepper rice</t>
         </is>
       </c>
     </row>
@@ -10352,11 +10352,11 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>42570</v>
+        <v>108955</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>2 in 1   herbed chicken   leftover chicken salad</t>
         </is>
       </c>
     </row>
@@ -10377,11 +10377,11 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>83873</v>
+        <v>246617</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>crispy crunchy  chicken</t>
+          <t>leftover  chicken  spinach and yellow pepper rice</t>
         </is>
       </c>
     </row>
@@ -10402,11 +10402,11 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>98930</v>
+        <v>492426</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>steamed  chicken cutlets in packages</t>
+          <t>an unusual take on chicken noodle casserole</t>
         </is>
       </c>
     </row>
@@ -10427,11 +10427,11 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>103948</v>
+        <v>29448</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>smells like sunday  chicken fricassee with meatballs</t>
+          <t>almond crusted catalan chicken</t>
         </is>
       </c>
     </row>
@@ -10452,11 +10452,11 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>44123</v>
+        <v>241579</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>george s at the cove  black bean soup</t>
+          <t>amish style chicken and corn soup  ww core</t>
         </is>
       </c>
     </row>
@@ -10477,11 +10477,11 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>63593</v>
+        <v>164100</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>more  more    apple pear jigglers</t>
+          <t>1 2 3 hash browns pie   k</t>
         </is>
       </c>
     </row>
@@ -10502,11 +10502,11 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>30131</v>
+        <v>364761</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>momma s special  marinade</t>
+          <t>16 quart chicken corn soup</t>
         </is>
       </c>
     </row>
@@ -10527,11 +10527,11 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>103948</v>
+        <v>149767</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>smells like sunday  chicken fricassee with meatballs</t>
+          <t>andrew s chicken enchilada soup</t>
         </is>
       </c>
     </row>
@@ -10552,11 +10552,11 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>83873</v>
+        <v>108955</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>crispy crunchy  chicken</t>
+          <t>2 in 1   herbed chicken   leftover chicken salad</t>
         </is>
       </c>
     </row>
@@ -10577,11 +10577,11 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>107229</v>
+        <v>474098</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>all the fixins curried chicken salad</t>
         </is>
       </c>
     </row>
@@ -10602,11 +10602,11 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>23850</v>
+        <v>394624</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>almost non fat mac and cheese</t>
         </is>
       </c>
     </row>
@@ -10627,11 +10627,11 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>63593</v>
+        <v>364330</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>more  more    apple pear jigglers</t>
+          <t>all in one veggie mac and cheese</t>
         </is>
       </c>
     </row>
@@ -10652,11 +10652,11 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>47366</v>
+        <v>205443</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>forgotten  minestrone</t>
+          <t>vegan mac un cheese</t>
         </is>
       </c>
     </row>
@@ -10677,11 +10677,11 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>64302</v>
+        <v>53152</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>red  macaroni salad</t>
+          <t>souper  easy macaroni and cheese</t>
         </is>
       </c>
     </row>
@@ -10702,11 +10702,11 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>111875</v>
+        <v>238258</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>4 cheese macaroni and cheese</t>
         </is>
       </c>
     </row>
@@ -10727,11 +10727,11 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>64302</v>
+        <v>357076</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>red  macaroni salad</t>
+          <t>6 cheese macaroni and cheese</t>
         </is>
       </c>
     </row>
@@ -10752,11 +10752,11 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>63593</v>
+        <v>212084</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>more  more    apple pear jigglers</t>
+          <t>5 ingredient macaroni and cheese</t>
         </is>
       </c>
     </row>
@@ -10777,11 +10777,11 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>71635</v>
+        <v>328430</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>acadia s velveeta mac   cheese</t>
         </is>
       </c>
     </row>
@@ -10802,11 +10802,11 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>23850</v>
+        <v>320217</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>all american macaroni   cheese</t>
         </is>
       </c>
     </row>
@@ -10827,11 +10827,11 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>62368</v>
+        <v>176883</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>indian  macaroni and cheese</t>
         </is>
       </c>
     </row>
@@ -10852,11 +10852,11 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>112140</v>
+        <v>268942</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>all in the kitchen  chili</t>
+          <t>cheesy  tuna casserole</t>
         </is>
       </c>
     </row>
@@ -10877,11 +10877,11 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>108414</v>
+        <v>146093</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>jiffy  roasted corn and jalapeno cornbread</t>
+          <t>macaroni   cheese my way</t>
         </is>
       </c>
     </row>
@@ -10902,11 +10902,11 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>59632</v>
+        <v>104588</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>kitchen sink  egg bake</t>
+          <t>4 cheese baked macaroni</t>
         </is>
       </c>
     </row>
@@ -10927,11 +10927,11 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>64302</v>
+        <v>242620</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>red  macaroni salad</t>
+          <t>anne s pasta salad  made lighter</t>
         </is>
       </c>
     </row>
@@ -10952,11 +10952,11 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>38276</v>
+        <v>86981</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>now and later  vegetarian empanadas</t>
+          <t>american country fare</t>
         </is>
       </c>
     </row>
@@ -10977,11 +10977,11 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>90921</v>
+        <v>518669</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>i stole the idea from mirj  sesame noodles</t>
+          <t>apple  honey   caramelized onion flatbread pizza</t>
         </is>
       </c>
     </row>
@@ -11002,11 +11002,11 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>30300</v>
+        <v>303666</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>a french country affair  elegant omelette gateau w chive flowers</t>
         </is>
       </c>
     </row>
@@ -11027,11 +11027,11 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>24701</v>
+        <v>506732</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>asian carrot and cabbage noodles</t>
         </is>
       </c>
     </row>
@@ -11052,11 +11052,11 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>27087</v>
+        <v>195031</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>get the sensation  brownies</t>
+          <t>acorn squash and sweet potato soup  vegetarian</t>
         </is>
       </c>
     </row>
@@ -11077,11 +11077,11 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>35595</v>
+        <v>183118</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>pour over anything  mushroom gravy</t>
+          <t>almond rice casserole</t>
         </is>
       </c>
     </row>
@@ -11102,11 +11102,11 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>24701</v>
+        <v>418756</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>chicken  tikka masala   vegan style</t>
         </is>
       </c>
     </row>
@@ -11127,11 +11127,11 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>23850</v>
+        <v>238046</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>amazing vegetarian or vegan lasagna</t>
         </is>
       </c>
     </row>
@@ -11152,11 +11152,11 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>63793</v>
+        <v>191043</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>asian chopped salad</t>
         </is>
       </c>
     </row>
@@ -11177,11 +11177,11 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>44123</v>
+        <v>279052</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>george s at the cove  black bean soup</t>
+          <t>cheesy  vegan lasagna</t>
         </is>
       </c>
     </row>
@@ -11202,11 +11202,11 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>107229</v>
+        <v>154432</v>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>asian sesame noodle salad with peanut dressing  vegetarian</t>
         </is>
       </c>
     </row>
@@ -11227,11 +11227,11 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>76808</v>
+        <v>76915</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>a ramchandani special  subru uncle s traditional sindhi curry mo</t>
         </is>
       </c>
     </row>
@@ -11252,11 +11252,11 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>93958</v>
+        <v>117529</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>i yam what i yam  muffins</t>
+          <t>apricot chicken  4 ingredients</t>
         </is>
       </c>
     </row>
@@ -11277,11 +11277,11 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>54272</v>
+        <v>11512</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>aloo curry  potato curry</t>
         </is>
       </c>
     </row>
@@ -11302,11 +11302,11 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>103948</v>
+        <v>268557</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>smells like sunday  chicken fricassee with meatballs</t>
+          <t>achari chicken</t>
         </is>
       </c>
     </row>
@@ -11327,11 +11327,11 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>59952</v>
+        <v>20259</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>global gourmet  taco casserole</t>
+          <t>armenian shish kebab</t>
         </is>
       </c>
     </row>
@@ -11352,11 +11352,11 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>24478</v>
+        <v>308592</v>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>marijuana  vinegar</t>
+          <t>3 variations of a gluten free bread recipe   bread machine</t>
         </is>
       </c>
     </row>
@@ -11377,11 +11377,11 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>71635</v>
+        <v>433359</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>allergen free gluten free bread</t>
         </is>
       </c>
     </row>
@@ -11402,11 +11402,11 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>95926</v>
+        <v>375376</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>miracle  honey oatmeal bread  gluten free</t>
         </is>
       </c>
     </row>
@@ -11427,11 +11427,11 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>39363</v>
+        <v>122237</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>apricot and almond bread  gluten  dairy and egg free</t>
         </is>
       </c>
     </row>
@@ -11452,11 +11452,11 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>30300</v>
+        <v>27060</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>100   whole wheat</t>
         </is>
       </c>
     </row>
@@ -11477,11 +11477,11 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>83062</v>
+        <v>308592</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>spicy  banana bread</t>
+          <t>3 variations of a gluten free bread recipe   bread machine</t>
         </is>
       </c>
     </row>
@@ -11502,11 +11502,11 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>30300</v>
+        <v>433359</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>allergen free gluten free bread</t>
         </is>
       </c>
     </row>
@@ -11527,11 +11527,11 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>39363</v>
+        <v>505210</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>apple and pecan muffins  gluten free or not</t>
         </is>
       </c>
     </row>
@@ -11552,11 +11552,11 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>93249</v>
+        <v>175912</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>grilled  ranch bread</t>
+          <t>always tastes great  gluten free easy cake with variations</t>
         </is>
       </c>
     </row>
@@ -11577,11 +11577,11 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>26995</v>
+        <v>273537</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>keep it going  german friendship cake</t>
+          <t>almond iced shortbread balls  gluten free</t>
         </is>
       </c>
     </row>
@@ -11602,11 +11602,11 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>107699</v>
+        <v>374600</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>9 grain cereal bread and rolls</t>
         </is>
       </c>
     </row>
@@ -11627,11 +11627,11 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>30300</v>
+        <v>505210</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>apple and pecan muffins  gluten free or not</t>
         </is>
       </c>
     </row>
@@ -11652,11 +11652,11 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>95926</v>
+        <v>308592</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>3 variations of a gluten free bread recipe   bread machine</t>
         </is>
       </c>
     </row>
@@ -11677,11 +11677,11 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>54272</v>
+        <v>351153</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>apple breakfast bar  gluten free   vegan options</t>
         </is>
       </c>
     </row>
@@ -11702,11 +11702,11 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>93249</v>
+        <v>426211</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>grilled  ranch bread</t>
+          <t>allergen free mini cupcakes</t>
         </is>
       </c>
     </row>
@@ -11727,11 +11727,11 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>63793</v>
+        <v>58764</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>aubergine  eggplant  pitas</t>
         </is>
       </c>
     </row>
@@ -11752,11 +11752,11 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>107699</v>
+        <v>130766</v>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>a breakfast yogurt parfait  granola</t>
         </is>
       </c>
     </row>
@@ -11777,11 +11777,11 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>54272</v>
+        <v>160776</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>20 minute chicken nuggets</t>
         </is>
       </c>
     </row>
@@ -11802,11 +11802,11 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>76808</v>
+        <v>412171</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>another smoothie recipe</t>
         </is>
       </c>
     </row>
@@ -11827,11 +11827,11 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>95926</v>
+        <v>57009</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>5 cans and a jar soup</t>
         </is>
       </c>
     </row>
@@ -11852,11 +11852,11 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>63793</v>
+        <v>324363</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>apple cider oatmeal</t>
         </is>
       </c>
     </row>
@@ -11877,11 +11877,11 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>54272</v>
+        <v>58764</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>aubergine  eggplant  pitas</t>
         </is>
       </c>
     </row>
@@ -11902,11 +11902,11 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>54100</v>
+        <v>130766</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>grilled  venison burgers</t>
+          <t>a breakfast yogurt parfait  granola</t>
         </is>
       </c>
     </row>
@@ -11927,11 +11927,11 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>33606</v>
+        <v>72449</v>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>gimme a cheap weeknight dinner  quick</t>
         </is>
       </c>
     </row>
@@ -11952,11 +11952,11 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>64302</v>
+        <v>122791</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>red  macaroni salad</t>
+          <t>2 minute low fat strawberry and banana custard comfort food</t>
         </is>
       </c>
     </row>
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>107699</v>
+        <v>130995</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>a snack for cream cheese and veggie fans</t>
         </is>
       </c>
     </row>
@@ -12002,11 +12002,11 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>38276</v>
+        <v>199545</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>now and later  vegetarian empanadas</t>
+          <t>leave me for you  chili</t>
         </is>
       </c>
     </row>
@@ -12027,11 +12027,11 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>58224</v>
+        <v>331056</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>ashley s healthy  whole wheat oatmeal  banana bread</t>
         </is>
       </c>
     </row>
@@ -12052,11 +12052,11 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>90921</v>
+        <v>158685</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>i stole the idea from mirj  sesame noodles</t>
+          <t>5 minute pita pizza</t>
         </is>
       </c>
     </row>
@@ -12077,11 +12077,11 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>108414</v>
+        <v>391055</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>jiffy  roasted corn and jalapeno cornbread</t>
+          <t>asian steamed pork meatballs  sesame noodles   salad</t>
         </is>
       </c>
     </row>
@@ -12102,11 +12102,11 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>63793</v>
+        <v>300367</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>apple harvest oatmeal  vegan</t>
         </is>
       </c>
     </row>
@@ -12127,11 +12127,11 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>76808</v>
+        <v>337765</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>apple oatmeal  crock pot</t>
         </is>
       </c>
     </row>
@@ -12152,11 +12152,11 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>67664</v>
+        <v>351153</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>healthy for them  yogurt popsicles</t>
+          <t>apple breakfast bar  gluten free   vegan options</t>
         </is>
       </c>
     </row>
@@ -12177,11 +12177,11 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>42570</v>
+        <v>358330</v>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>apple cinnamon steel cut oats</t>
         </is>
       </c>
     </row>
@@ -12202,11 +12202,11 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>107699</v>
+        <v>132263</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>5 minute vegan pancakes</t>
         </is>
       </c>
     </row>
@@ -12227,11 +12227,11 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>42570</v>
+        <v>481720</v>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>asparagus and eggs  a special breakfast treat</t>
         </is>
       </c>
     </row>
@@ -12252,11 +12252,11 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>112959</v>
+        <v>130766</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>a breakfast yogurt parfait  granola</t>
         </is>
       </c>
     </row>
@@ -12277,11 +12277,11 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>54100</v>
+        <v>122299</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>grilled  venison burgers</t>
+          <t>all star breakfast rice</t>
         </is>
       </c>
     </row>
@@ -12302,11 +12302,11 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>54272</v>
+        <v>134377</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>another low carb eggless breakfast</t>
         </is>
       </c>
     </row>
@@ -12327,11 +12327,11 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>58224</v>
+        <v>337765</v>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>apple oatmeal  crock pot</t>
         </is>
       </c>
     </row>
@@ -12352,11 +12352,11 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>111875</v>
+        <v>472184</v>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>7 day diet fat burning cabbage soup</t>
         </is>
       </c>
     </row>
@@ -12377,11 +12377,11 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>54272</v>
+        <v>205443</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>vegan mac un cheese</t>
         </is>
       </c>
     </row>
@@ -12402,11 +12402,11 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>58224</v>
+        <v>47677</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>amish stewed crackers</t>
         </is>
       </c>
     </row>
@@ -12427,11 +12427,11 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>59952</v>
+        <v>401093</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>global gourmet  taco casserole</t>
+          <t>another yummy veggie loaf</t>
         </is>
       </c>
     </row>
@@ -12452,11 +12452,11 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>42522</v>
+        <v>57204</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>all american county fair prize winning chili</t>
         </is>
       </c>
     </row>
@@ -12477,11 +12477,11 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>99024</v>
+        <v>124438</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>smoked  salmon  cracker spread</t>
+          <t>appetizer salmon mini fillets</t>
         </is>
       </c>
     </row>
@@ -12502,11 +12502,11 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>43164</v>
+        <v>369773</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>mr  grant you took half veal prince orloff</t>
+          <t>4th of july salmon with egg sauce</t>
         </is>
       </c>
     </row>
@@ -12527,11 +12527,11 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>33606</v>
+        <v>320576</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>asparagus puff pastry snacks</t>
         </is>
       </c>
     </row>
@@ -12552,11 +12552,11 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>75452</v>
+        <v>224028</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>beat this  banana bread</t>
+          <t>aluminum fish</t>
         </is>
       </c>
     </row>
@@ -12577,11 +12577,11 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>38276</v>
+        <v>294946</v>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>now and later  vegetarian empanadas</t>
+          <t>annie s melt in your mouth mahi  fish</t>
         </is>
       </c>
     </row>
@@ -12602,11 +12602,11 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>99024</v>
+        <v>444749</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>smoked  salmon  cracker spread</t>
+          <t>5 ingredient salmon in a mustard   honey cream sauce</t>
         </is>
       </c>
     </row>
@@ -12627,11 +12627,11 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>84797</v>
+        <v>227420</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>20 minute skillet salmon</t>
         </is>
       </c>
     </row>
@@ -12652,11 +12652,11 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>35653</v>
+        <v>118115</v>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>make it your way  shortcakes</t>
+          <t>almond crusted salmon with leek and lemon cream</t>
         </is>
       </c>
     </row>
@@ -12677,11 +12677,11 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>33606</v>
+        <v>124438</v>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>appetizer salmon mini fillets</t>
         </is>
       </c>
     </row>
@@ -12702,11 +12702,11 @@
         </is>
       </c>
       <c r="D491" t="n">
-        <v>49262</v>
+        <v>369773</v>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>easiest ever  hollandaise sauce</t>
+          <t>4th of july salmon with egg sauce</t>
         </is>
       </c>
     </row>
@@ -12727,11 +12727,11 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>99024</v>
+        <v>170709</v>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>smoked  salmon  cracker spread</t>
+          <t>assorted polish canapes</t>
         </is>
       </c>
     </row>
@@ -12752,11 +12752,11 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>33606</v>
+        <v>444749</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>5 ingredient salmon in a mustard   honey cream sauce</t>
         </is>
       </c>
     </row>
@@ -12777,11 +12777,11 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>84797</v>
+        <v>444018</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>asian spiced salmon kedgeree  nigella lawson</t>
         </is>
       </c>
     </row>
@@ -12802,11 +12802,11 @@
         </is>
       </c>
       <c r="D495" t="n">
-        <v>75452</v>
+        <v>320576</v>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>beat this  banana bread</t>
+          <t>asparagus puff pastry snacks</t>
         </is>
       </c>
     </row>
@@ -12827,11 +12827,11 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>30131</v>
+        <v>369773</v>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>momma s special  marinade</t>
+          <t>4th of july salmon with egg sauce</t>
         </is>
       </c>
     </row>
@@ -12852,11 +12852,11 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>31490</v>
+        <v>382492</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>a bit different  breakfast pizza</t>
+          <t>alton brown s pizza</t>
         </is>
       </c>
     </row>
@@ -12877,11 +12877,11 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>93958</v>
+        <v>518669</v>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>i yam what i yam  muffins</t>
+          <t>apple  honey   caramelized onion flatbread pizza</t>
         </is>
       </c>
     </row>
@@ -12902,11 +12902,11 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>71635</v>
+        <v>487701</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>5 minute artisan pizza dough</t>
         </is>
       </c>
     </row>
@@ -12927,11 +12927,11 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>38276</v>
+        <v>487173</v>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>now and later  vegetarian empanadas</t>
+          <t>5 minute bread  pizza</t>
         </is>
       </c>
     </row>
@@ -12952,11 +12952,11 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>58651</v>
+        <v>161269</v>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>artichoke pizza</t>
         </is>
       </c>
     </row>
@@ -12977,11 +12977,11 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>31490</v>
+        <v>123710</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>a bit different  breakfast pizza</t>
+          <t>amazing thin crust pizza</t>
         </is>
       </c>
     </row>
@@ -13002,11 +13002,11 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>26835</v>
+        <v>131965</v>
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>one bowl  perfect pound cake</t>
+          <t>aphrodite s faster than takeout pizza</t>
         </is>
       </c>
     </row>
@@ -13027,11 +13027,11 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>30300</v>
+        <v>31490</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -13052,11 +13052,11 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>71635</v>
+        <v>393111</v>
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>annz california fuzion pizza</t>
         </is>
       </c>
     </row>
@@ -13077,11 +13077,11 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>35653</v>
+        <v>199142</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>make it your way  shortcakes</t>
+          <t>a different  pizza</t>
         </is>
       </c>
     </row>
@@ -13102,11 +13102,11 @@
         </is>
       </c>
       <c r="D507" t="n">
-        <v>31490</v>
+        <v>487173</v>
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>a bit different  breakfast pizza</t>
+          <t>5 minute bread  pizza</t>
         </is>
       </c>
     </row>
@@ -13127,11 +13127,11 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>52804</v>
+        <v>131965</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>aphrodite s faster than takeout pizza</t>
         </is>
       </c>
     </row>
@@ -13152,11 +13152,11 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>26995</v>
+        <v>436030</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>keep it going  german friendship cake</t>
+          <t>100  whole wheat pizza dough and pizza tips</t>
         </is>
       </c>
     </row>
@@ -13177,11 +13177,11 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>25775</v>
+        <v>382492</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>alton brown s pizza</t>
         </is>
       </c>
     </row>
@@ -13202,11 +13202,11 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>27087</v>
+        <v>320373</v>
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>get the sensation  brownies</t>
+          <t>apple  pizza   weight watchers points   5</t>
         </is>
       </c>
     </row>
@@ -13227,11 +13227,11 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>112959</v>
+        <v>349708</v>
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>apple and cinnamon muffins  vegan</t>
         </is>
       </c>
     </row>
@@ -13252,11 +13252,11 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>25274</v>
+        <v>349570</v>
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>5 bean salad</t>
         </is>
       </c>
     </row>
@@ -13277,11 +13277,11 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>54272</v>
+        <v>274988</v>
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>thicker than pea soup  pea soup</t>
         </is>
       </c>
     </row>
@@ -13302,11 +13302,11 @@
         </is>
       </c>
       <c r="D515" t="n">
-        <v>81185</v>
+        <v>51922</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>mock a mole   low fat guacamole</t>
+          <t>cream  of mushroom soup</t>
         </is>
       </c>
     </row>
@@ -13327,11 +13327,11 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>24701</v>
+        <v>363030</v>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>5 minute  no cook marinara sauce</t>
         </is>
       </c>
     </row>
@@ -13352,11 +13352,11 @@
         </is>
       </c>
       <c r="D517" t="n">
-        <v>112959</v>
+        <v>291409</v>
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>15 minute vegetarian chili</t>
         </is>
       </c>
     </row>
@@ -13377,11 +13377,11 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>24701</v>
+        <v>317309</v>
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>3 step cheddar broccoli bake</t>
         </is>
       </c>
     </row>
@@ -13402,11 +13402,11 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>54272</v>
+        <v>187309</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>3 ingredient chili  or salsa</t>
         </is>
       </c>
     </row>
@@ -13427,11 +13427,11 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>23850</v>
+        <v>182904</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>2 minute noodles for two with ham   cheese</t>
         </is>
       </c>
     </row>
@@ -13452,11 +13452,11 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>84797</v>
+        <v>211322</v>
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>special  oatmeal cookies   vegan</t>
         </is>
       </c>
     </row>
@@ -13477,11 +13477,11 @@
         </is>
       </c>
       <c r="D522" t="n">
-        <v>111875</v>
+        <v>305397</v>
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>ancient honey and sesame fritters    arxaies tiganites me meli k</t>
         </is>
       </c>
     </row>
@@ -13502,11 +13502,11 @@
         </is>
       </c>
       <c r="D523" t="n">
-        <v>99024</v>
+        <v>513048</v>
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>smoked  salmon  cracker spread</t>
+          <t>asian fried noodles</t>
         </is>
       </c>
     </row>
@@ -13527,11 +13527,11 @@
         </is>
       </c>
       <c r="D524" t="n">
-        <v>43164</v>
+        <v>124765</v>
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>mr  grant you took half veal prince orloff</t>
+          <t>apple and raspberry crumble  crisp</t>
         </is>
       </c>
     </row>
@@ -13552,11 +13552,11 @@
         </is>
       </c>
       <c r="D525" t="n">
-        <v>42522</v>
+        <v>42865</v>
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>apple pies for the freezer</t>
         </is>
       </c>
     </row>
@@ -13577,11 +13577,11 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>23850</v>
+        <v>135589</v>
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>angel hair with tomatoes  basil and garlic</t>
         </is>
       </c>
     </row>
@@ -13602,11 +13602,11 @@
         </is>
       </c>
       <c r="D527" t="n">
-        <v>30300</v>
+        <v>123602</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>absolutely sugar free frosting</t>
         </is>
       </c>
     </row>
@@ -13627,11 +13627,11 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>30131</v>
+        <v>210257</v>
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>momma s special  marinade</t>
+          <t>apple bread pudding  diabetic</t>
         </is>
       </c>
     </row>
@@ -13652,11 +13652,11 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>99024</v>
+        <v>255505</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>smoked  salmon  cracker spread</t>
+          <t>apple pie surprise diabetic</t>
         </is>
       </c>
     </row>
@@ -13677,11 +13677,11 @@
         </is>
       </c>
       <c r="D530" t="n">
-        <v>49262</v>
+        <v>281740</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>easiest ever  hollandaise sauce</t>
+          <t>abear s diet jello</t>
         </is>
       </c>
     </row>
@@ -13702,11 +13702,11 @@
         </is>
       </c>
       <c r="D531" t="n">
-        <v>42570</v>
+        <v>179927</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>applesauce cake for diabetics</t>
         </is>
       </c>
     </row>
@@ -13727,11 +13727,11 @@
         </is>
       </c>
       <c r="D532" t="n">
-        <v>35964</v>
+        <v>179927</v>
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>applesauce cake for diabetics</t>
         </is>
       </c>
     </row>
@@ -13752,11 +13752,11 @@
         </is>
       </c>
       <c r="D533" t="n">
-        <v>107699</v>
+        <v>123602</v>
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>absolutely sugar free frosting</t>
         </is>
       </c>
     </row>
@@ -13777,11 +13777,11 @@
         </is>
       </c>
       <c r="D534" t="n">
-        <v>52804</v>
+        <v>210257</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>apple bread pudding  diabetic</t>
         </is>
       </c>
     </row>
@@ -13802,11 +13802,11 @@
         </is>
       </c>
       <c r="D535" t="n">
-        <v>112959</v>
+        <v>15543</v>
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>apple dessert</t>
         </is>
       </c>
     </row>
@@ -13827,11 +13827,11 @@
         </is>
       </c>
       <c r="D536" t="n">
-        <v>42198</v>
+        <v>135757</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>better than sex  strawberries</t>
+          <t>asian grilled salmon   low carb   fabulous</t>
         </is>
       </c>
     </row>
@@ -13852,11 +13852,11 @@
         </is>
       </c>
       <c r="D537" t="n">
-        <v>83025</v>
+        <v>476655</v>
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>jeanne s style  birthday cake</t>
+          <t>7 day soup diet  my version</t>
         </is>
       </c>
     </row>
@@ -13877,11 +13877,11 @@
         </is>
       </c>
       <c r="D538" t="n">
-        <v>62368</v>
+        <v>170081</v>
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>after dinner wontons</t>
         </is>
       </c>
     </row>
@@ -13902,11 +13902,11 @@
         </is>
       </c>
       <c r="D539" t="n">
-        <v>63793</v>
+        <v>487052</v>
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>almond spiced chicken</t>
         </is>
       </c>
     </row>
@@ -13927,11 +13927,11 @@
         </is>
       </c>
       <c r="D540" t="n">
-        <v>22526</v>
+        <v>107851</v>
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>land of nod  cinnamon buns</t>
+          <t>apple yum</t>
         </is>
       </c>
     </row>
@@ -13952,11 +13952,11 @@
         </is>
       </c>
       <c r="D541" t="n">
-        <v>107699</v>
+        <v>22322</v>
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>asparagus risotto</t>
         </is>
       </c>
     </row>
@@ -13977,11 +13977,11 @@
         </is>
       </c>
       <c r="D542" t="n">
-        <v>107699</v>
+        <v>274859</v>
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>apple fantasy dessert   low fat</t>
         </is>
       </c>
     </row>
@@ -14002,11 +14002,11 @@
         </is>
       </c>
       <c r="D543" t="n">
-        <v>67664</v>
+        <v>29860</v>
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>healthy for them  yogurt popsicles</t>
+          <t>angel food pineapple orange muffins</t>
         </is>
       </c>
     </row>
@@ -14027,11 +14027,11 @@
         </is>
       </c>
       <c r="D544" t="n">
-        <v>35964</v>
+        <v>192039</v>
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>5 min ice cream</t>
         </is>
       </c>
     </row>
@@ -14052,11 +14052,11 @@
         </is>
       </c>
       <c r="D545" t="n">
-        <v>42198</v>
+        <v>189409</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>better than sex  strawberries</t>
+          <t>apricot custards</t>
         </is>
       </c>
     </row>
@@ -14077,11 +14077,11 @@
         </is>
       </c>
       <c r="D546" t="n">
-        <v>30300</v>
+        <v>229252</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>adam s fruit popsicles</t>
         </is>
       </c>
     </row>
@@ -14102,11 +14102,11 @@
         </is>
       </c>
       <c r="D547" t="n">
-        <v>52804</v>
+        <v>100156</v>
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>angel food cake dessert</t>
         </is>
       </c>
     </row>
@@ -14127,11 +14127,11 @@
         </is>
       </c>
       <c r="D548" t="n">
-        <v>107699</v>
+        <v>265817</v>
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>abby s pumpkin pie crustless custard</t>
         </is>
       </c>
     </row>
@@ -14152,11 +14152,11 @@
         </is>
       </c>
       <c r="D549" t="n">
-        <v>35964</v>
+        <v>274859</v>
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>apple fantasy dessert   low fat</t>
         </is>
       </c>
     </row>
@@ -14177,11 +14177,11 @@
         </is>
       </c>
       <c r="D550" t="n">
-        <v>26835</v>
+        <v>227970</v>
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>one bowl  perfect pound cake</t>
+          <t>apple oat cake  low gi</t>
         </is>
       </c>
     </row>
@@ -14202,11 +14202,11 @@
         </is>
       </c>
       <c r="D551" t="n">
-        <v>42198</v>
+        <v>179927</v>
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>better than sex  strawberries</t>
+          <t>applesauce cake for diabetics</t>
         </is>
       </c>
     </row>
@@ -14227,11 +14227,11 @@
         </is>
       </c>
       <c r="D552" t="n">
-        <v>63793</v>
+        <v>170081</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>after dinner wontons</t>
         </is>
       </c>
     </row>
@@ -14252,11 +14252,11 @@
         </is>
       </c>
       <c r="D553" t="n">
-        <v>26835</v>
+        <v>216186</v>
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>one bowl  perfect pound cake</t>
+          <t>amaretto chocolate cream tarts</t>
         </is>
       </c>
     </row>
@@ -14277,11 +14277,11 @@
         </is>
       </c>
       <c r="D554" t="n">
-        <v>107699</v>
+        <v>368878</v>
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>real  strawberry pie with french cream topping</t>
         </is>
       </c>
     </row>
@@ -14302,11 +14302,11 @@
         </is>
       </c>
       <c r="D555" t="n">
-        <v>83025</v>
+        <v>391825</v>
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>jeanne s style  birthday cake</t>
+          <t>ally s low cal margarita</t>
         </is>
       </c>
     </row>
@@ -14327,11 +14327,11 @@
         </is>
       </c>
       <c r="D556" t="n">
-        <v>62368</v>
+        <v>484129</v>
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>apricot honey wheat pudding</t>
         </is>
       </c>
     </row>
@@ -14352,11 +14352,11 @@
         </is>
       </c>
       <c r="D557" t="n">
-        <v>71457</v>
+        <v>84682</v>
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>rise and shine  german fruit pancake</t>
+          <t>apple  bacon and cheddar pancakes</t>
         </is>
       </c>
     </row>
@@ -14377,11 +14377,11 @@
         </is>
       </c>
       <c r="D558" t="n">
-        <v>71635</v>
+        <v>422794</v>
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>apple cinnamon pancakes</t>
         </is>
       </c>
     </row>
@@ -14402,11 +14402,11 @@
         </is>
       </c>
       <c r="D559" t="n">
-        <v>83025</v>
+        <v>321847</v>
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>jeanne s style  birthday cake</t>
+          <t>almond chocolate cake  no flour</t>
         </is>
       </c>
     </row>
@@ -14427,11 +14427,11 @@
         </is>
       </c>
       <c r="D560" t="n">
-        <v>62368</v>
+        <v>418683</v>
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>agave vanilla snack cake</t>
         </is>
       </c>
     </row>
@@ -14452,11 +14452,11 @@
         </is>
       </c>
       <c r="D561" t="n">
-        <v>35653</v>
+        <v>417632</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>make it your way  shortcakes</t>
+          <t>100  healthy   lucious spice cake  low calorie</t>
         </is>
       </c>
     </row>
@@ -14477,11 +14477,11 @@
         </is>
       </c>
       <c r="D562" t="n">
-        <v>71635</v>
+        <v>232518</v>
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>almost flourless chocolate cake</t>
         </is>
       </c>
     </row>
@@ -14502,11 +14502,11 @@
         </is>
       </c>
       <c r="D563" t="n">
-        <v>62368</v>
+        <v>80411</v>
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>1 2 3 4 cake with caramel icing</t>
         </is>
       </c>
     </row>
@@ -14527,11 +14527,11 @@
         </is>
       </c>
       <c r="D564" t="n">
-        <v>71457</v>
+        <v>321847</v>
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>rise and shine  german fruit pancake</t>
+          <t>almond chocolate cake  no flour</t>
         </is>
       </c>
     </row>
@@ -14552,11 +14552,11 @@
         </is>
       </c>
       <c r="D565" t="n">
-        <v>35653</v>
+        <v>138727</v>
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>make it your way  shortcakes</t>
+          <t>apfelkuchen mit rahm  applecake with rum</t>
         </is>
       </c>
     </row>
@@ -14577,11 +14577,11 @@
         </is>
       </c>
       <c r="D566" t="n">
-        <v>83025</v>
+        <v>422794</v>
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>jeanne s style  birthday cake</t>
+          <t>apple cinnamon pancakes</t>
         </is>
       </c>
     </row>
@@ -14602,11 +14602,11 @@
         </is>
       </c>
       <c r="D567" t="n">
-        <v>83025</v>
+        <v>84682</v>
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>jeanne s style  birthday cake</t>
+          <t>apple  bacon and cheddar pancakes</t>
         </is>
       </c>
     </row>
@@ -14627,11 +14627,11 @@
         </is>
       </c>
       <c r="D568" t="n">
-        <v>62368</v>
+        <v>348870</v>
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>amazing hungarian chicken paprikash with dumplings</t>
         </is>
       </c>
     </row>
@@ -14652,11 +14652,11 @@
         </is>
       </c>
       <c r="D569" t="n">
-        <v>58651</v>
+        <v>400885</v>
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>49er flapjacks</t>
         </is>
       </c>
     </row>
@@ -14677,11 +14677,11 @@
         </is>
       </c>
       <c r="D570" t="n">
-        <v>107699</v>
+        <v>406546</v>
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>amazingly easy   delicious buttery frosting</t>
         </is>
       </c>
     </row>
@@ -14702,11 +14702,11 @@
         </is>
       </c>
       <c r="D571" t="n">
-        <v>26995</v>
+        <v>208179</v>
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>keep it going  german friendship cake</t>
+          <t>300 icing</t>
         </is>
       </c>
     </row>
@@ -14727,11 +14727,11 @@
         </is>
       </c>
       <c r="D572" t="n">
-        <v>33606</v>
+        <v>223349</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>pasta  with shrimp   eggplant</t>
         </is>
       </c>
     </row>
@@ -14752,11 +14752,11 @@
         </is>
       </c>
       <c r="D573" t="n">
-        <v>25274</v>
+        <v>234856</v>
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>acini di pepe ambrosia salad</t>
         </is>
       </c>
     </row>
@@ -14777,11 +14777,11 @@
         </is>
       </c>
       <c r="D574" t="n">
-        <v>60219</v>
+        <v>470837</v>
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>mexican pasta</t>
+          <t>no cook summer pasta</t>
         </is>
       </c>
     </row>
@@ -14802,11 +14802,11 @@
         </is>
       </c>
       <c r="D575" t="n">
-        <v>54100</v>
+        <v>336744</v>
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>grilled  venison burgers</t>
+          <t>egg  cellent noodles</t>
         </is>
       </c>
     </row>
@@ -14827,11 +14827,11 @@
         </is>
       </c>
       <c r="D576" t="n">
-        <v>107229</v>
+        <v>215918</v>
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>3 cheese bake  elbows plus al forno con salsa ai tre formaggi</t>
         </is>
       </c>
     </row>
@@ -14852,11 +14852,11 @@
         </is>
       </c>
       <c r="D577" t="n">
-        <v>33606</v>
+        <v>385498</v>
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>almond pesto pasta</t>
         </is>
       </c>
     </row>
@@ -14877,11 +14877,11 @@
         </is>
       </c>
       <c r="D578" t="n">
-        <v>60219</v>
+        <v>432997</v>
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>mexican pasta</t>
+          <t>20 minute pasta bake</t>
         </is>
       </c>
     </row>
@@ -14902,11 +14902,11 @@
         </is>
       </c>
       <c r="D579" t="n">
-        <v>49262</v>
+        <v>4570</v>
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>easiest ever  hollandaise sauce</t>
+          <t>asparagus pasta</t>
         </is>
       </c>
     </row>
@@ -14927,11 +14927,11 @@
         </is>
       </c>
       <c r="D580" t="n">
-        <v>107229</v>
+        <v>159732</v>
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>alfredo chicken pasta toss</t>
         </is>
       </c>
     </row>
@@ -14952,11 +14952,11 @@
         </is>
       </c>
       <c r="D581" t="n">
-        <v>32169</v>
+        <v>221049</v>
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>leftover  lo mein for two</t>
         </is>
       </c>
     </row>
@@ -14977,11 +14977,11 @@
         </is>
       </c>
       <c r="D582" t="n">
-        <v>107229</v>
+        <v>102687</v>
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>a duet of pasta and cheese</t>
         </is>
       </c>
     </row>
@@ -15002,11 +15002,11 @@
         </is>
       </c>
       <c r="D583" t="n">
-        <v>32169</v>
+        <v>218615</v>
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>amy s shrimp halo with shrooms</t>
         </is>
       </c>
     </row>
@@ -15027,11 +15027,11 @@
         </is>
       </c>
       <c r="D584" t="n">
-        <v>90921</v>
+        <v>354340</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>i stole the idea from mirj  sesame noodles</t>
+          <t>algerian tli tli b djedj   pasta with chicken</t>
         </is>
       </c>
     </row>
@@ -15052,11 +15052,11 @@
         </is>
       </c>
       <c r="D585" t="n">
-        <v>83950</v>
+        <v>88175</v>
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>real  italian bolognese sauce</t>
+          <t>another baked ziti</t>
         </is>
       </c>
     </row>
@@ -15077,11 +15077,11 @@
         </is>
       </c>
       <c r="D586" t="n">
-        <v>33606</v>
+        <v>226835</v>
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>another catalina pasta salad</t>
         </is>
       </c>
     </row>
@@ -15102,11 +15102,11 @@
         </is>
       </c>
       <c r="D587" t="n">
-        <v>111875</v>
+        <v>217238</v>
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>artichoke spinach hummus</t>
         </is>
       </c>
     </row>
@@ -15127,11 +15127,11 @@
         </is>
       </c>
       <c r="D588" t="n">
-        <v>35964</v>
+        <v>140610</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>heavenly  fiber muffins</t>
         </is>
       </c>
     </row>
@@ -15152,11 +15152,11 @@
         </is>
       </c>
       <c r="D589" t="n">
-        <v>44895</v>
+        <v>116468</v>
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>symphony  brownies</t>
+          <t>apricot banana smoothie</t>
         </is>
       </c>
     </row>
@@ -15177,11 +15177,11 @@
         </is>
       </c>
       <c r="D590" t="n">
-        <v>23850</v>
+        <v>412171</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>another smoothie recipe</t>
         </is>
       </c>
     </row>
@@ -15202,11 +15202,11 @@
         </is>
       </c>
       <c r="D591" t="n">
-        <v>112959</v>
+        <v>445253</v>
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>apple and hazelnut pancakes</t>
         </is>
       </c>
     </row>
@@ -15227,11 +15227,11 @@
         </is>
       </c>
       <c r="D592" t="n">
-        <v>111875</v>
+        <v>116468</v>
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>apricot banana smoothie</t>
         </is>
       </c>
     </row>
@@ -15252,11 +15252,11 @@
         </is>
       </c>
       <c r="D593" t="n">
-        <v>24701</v>
+        <v>140610</v>
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>heavenly  fiber muffins</t>
         </is>
       </c>
     </row>
@@ -15277,11 +15277,11 @@
         </is>
       </c>
       <c r="D594" t="n">
-        <v>27087</v>
+        <v>355103</v>
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>get the sensation  brownies</t>
+          <t>acadia s mocha malt smoothie</t>
         </is>
       </c>
     </row>
@@ -15302,11 +15302,11 @@
         </is>
       </c>
       <c r="D595" t="n">
-        <v>107699</v>
+        <v>423848</v>
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>amaretto and apricot smoothie  alcoholic</t>
         </is>
       </c>
     </row>
@@ -15327,11 +15327,11 @@
         </is>
       </c>
       <c r="D596" t="n">
-        <v>35964</v>
+        <v>248212</v>
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>if you like pina coladas  protein smoothie</t>
         </is>
       </c>
     </row>
@@ -15352,11 +15352,11 @@
         </is>
       </c>
       <c r="D597" t="n">
-        <v>111875</v>
+        <v>116468</v>
       </c>
       <c r="E597" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>apricot banana smoothie</t>
         </is>
       </c>
     </row>
@@ -15377,11 +15377,11 @@
         </is>
       </c>
       <c r="D598" t="n">
-        <v>83025</v>
+        <v>292681</v>
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>jeanne s style  birthday cake</t>
+          <t>amaretto shake</t>
         </is>
       </c>
     </row>
@@ -15402,11 +15402,11 @@
         </is>
       </c>
       <c r="D599" t="n">
-        <v>35964</v>
+        <v>234598</v>
       </c>
       <c r="E599" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>almond yogurt cake</t>
         </is>
       </c>
     </row>
@@ -15427,11 +15427,11 @@
         </is>
       </c>
       <c r="D600" t="n">
-        <v>58651</v>
+        <v>217238</v>
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>artichoke spinach hummus</t>
         </is>
       </c>
     </row>
@@ -15452,11 +15452,11 @@
         </is>
       </c>
       <c r="D601" t="n">
-        <v>112959</v>
+        <v>245526</v>
       </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>amaretto and raspberry smoothie</t>
         </is>
       </c>
     </row>
@@ -15477,11 +15477,11 @@
         </is>
       </c>
       <c r="D602" t="n">
-        <v>71635</v>
+        <v>305504</v>
       </c>
       <c r="E602" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>agave oatmeal raisin flax cookies</t>
         </is>
       </c>
     </row>
@@ -15502,11 +15502,11 @@
         </is>
       </c>
       <c r="D603" t="n">
-        <v>62368</v>
+        <v>323113</v>
       </c>
       <c r="E603" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>another peanut butter cookie   sugar free</t>
         </is>
       </c>
     </row>
@@ -15527,11 +15527,11 @@
         </is>
       </c>
       <c r="D604" t="n">
-        <v>111875</v>
+        <v>125942</v>
       </c>
       <c r="E604" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>amish sugar cookies with frosting</t>
         </is>
       </c>
     </row>
@@ -15552,11 +15552,11 @@
         </is>
       </c>
       <c r="D605" t="n">
-        <v>58651</v>
+        <v>92283</v>
       </c>
       <c r="E605" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>almond sugar cookies</t>
         </is>
       </c>
     </row>
@@ -15577,11 +15577,11 @@
         </is>
       </c>
       <c r="D606" t="n">
-        <v>27087</v>
+        <v>44901</v>
       </c>
       <c r="E606" t="inlineStr">
         <is>
-          <t>get the sensation  brownies</t>
+          <t>amish sugar cookies</t>
         </is>
       </c>
     </row>
@@ -15602,11 +15602,11 @@
         </is>
       </c>
       <c r="D607" t="n">
-        <v>71635</v>
+        <v>495924</v>
       </c>
       <c r="E607" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>almost fat free oatmeal cookies</t>
         </is>
       </c>
     </row>
@@ -15627,11 +15627,11 @@
         </is>
       </c>
       <c r="D608" t="n">
-        <v>27087</v>
+        <v>70290</v>
       </c>
       <c r="E608" t="inlineStr">
         <is>
-          <t>get the sensation  brownies</t>
+          <t>ann s soft sugar cookies</t>
         </is>
       </c>
     </row>
@@ -15652,11 +15652,11 @@
         </is>
       </c>
       <c r="D609" t="n">
-        <v>39947</v>
+        <v>234690</v>
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>sugared grapes</t>
+          <t>almost flourless peanut butter cookies</t>
         </is>
       </c>
     </row>
@@ -15677,11 +15677,11 @@
         </is>
       </c>
       <c r="D610" t="n">
-        <v>32271</v>
+        <v>273537</v>
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t>one pot  brownies</t>
+          <t>almond iced shortbread balls  gluten free</t>
         </is>
       </c>
     </row>
@@ -15702,11 +15702,11 @@
         </is>
       </c>
       <c r="D611" t="n">
-        <v>62368</v>
+        <v>322302</v>
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>anna s granola cookies</t>
         </is>
       </c>
     </row>
@@ -15727,11 +15727,11 @@
         </is>
       </c>
       <c r="D612" t="n">
-        <v>71635</v>
+        <v>393606</v>
       </c>
       <c r="E612" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>almond half moons</t>
         </is>
       </c>
     </row>
@@ -15752,11 +15752,11 @@
         </is>
       </c>
       <c r="D613" t="n">
-        <v>107699</v>
+        <v>44901</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>amish sugar cookies</t>
         </is>
       </c>
     </row>
@@ -15777,11 +15777,11 @@
         </is>
       </c>
       <c r="D614" t="n">
-        <v>83025</v>
+        <v>170304</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
-          <t>jeanne s style  birthday cake</t>
+          <t>almond crescents  kourabiedes</t>
         </is>
       </c>
     </row>
@@ -15802,11 +15802,11 @@
         </is>
       </c>
       <c r="D615" t="n">
-        <v>62368</v>
+        <v>70438</v>
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>apple crisp cookies</t>
         </is>
       </c>
     </row>
@@ -15827,11 +15827,11 @@
         </is>
       </c>
       <c r="D616" t="n">
-        <v>93958</v>
+        <v>104852</v>
       </c>
       <c r="E616" t="inlineStr">
         <is>
-          <t>i yam what i yam  muffins</t>
+          <t>anginetti  italian lemon drop cookies</t>
         </is>
       </c>
     </row>
@@ -15852,11 +15852,11 @@
         </is>
       </c>
       <c r="D617" t="n">
-        <v>59534</v>
+        <v>318535</v>
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>twisted american chop suey</t>
+          <t>amber s japan style tofu meal</t>
         </is>
       </c>
     </row>
@@ -15877,11 +15877,11 @@
         </is>
       </c>
       <c r="D618" t="n">
-        <v>103948</v>
+        <v>285649</v>
       </c>
       <c r="E618" t="inlineStr">
         <is>
-          <t>smells like sunday  chicken fricassee with meatballs</t>
+          <t>an amazing omelette</t>
         </is>
       </c>
     </row>
@@ -15902,11 +15902,11 @@
         </is>
       </c>
       <c r="D619" t="n">
-        <v>39363</v>
+        <v>38676</v>
       </c>
       <c r="E619" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>a different kind of french toast</t>
         </is>
       </c>
     </row>
@@ -15927,11 +15927,11 @@
         </is>
       </c>
       <c r="D620" t="n">
-        <v>31490</v>
+        <v>133328</v>
       </c>
       <c r="E620" t="inlineStr">
         <is>
-          <t>a bit different  breakfast pizza</t>
+          <t>ohana breakfast bread</t>
         </is>
       </c>
     </row>
@@ -15952,11 +15952,11 @@
         </is>
       </c>
       <c r="D621" t="n">
-        <v>25775</v>
+        <v>324363</v>
       </c>
       <c r="E621" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>apple cider oatmeal</t>
         </is>
       </c>
     </row>
@@ -15977,11 +15977,11 @@
         </is>
       </c>
       <c r="D622" t="n">
-        <v>39363</v>
+        <v>90316</v>
       </c>
       <c r="E622" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>an arabic breakfast</t>
         </is>
       </c>
     </row>
@@ -16002,11 +16002,11 @@
         </is>
       </c>
       <c r="D623" t="n">
-        <v>22526</v>
+        <v>133328</v>
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>land of nod  cinnamon buns</t>
+          <t>ohana breakfast bread</t>
         </is>
       </c>
     </row>
@@ -16027,11 +16027,11 @@
         </is>
       </c>
       <c r="D624" t="n">
-        <v>71457</v>
+        <v>304363</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>rise and shine  german fruit pancake</t>
+          <t>a complete breakfast in bed for the one you love</t>
         </is>
       </c>
     </row>
@@ -16052,11 +16052,11 @@
         </is>
       </c>
       <c r="D625" t="n">
-        <v>107229</v>
+        <v>45009</v>
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>amish style french toast  breakfast is served</t>
         </is>
       </c>
     </row>
@@ -16077,11 +16077,11 @@
         </is>
       </c>
       <c r="D626" t="n">
-        <v>64045</v>
+        <v>267052</v>
       </c>
       <c r="E626" t="inlineStr">
         <is>
-          <t>some like it hot</t>
+          <t>apple pear breakfast cobbler for the crock pot</t>
         </is>
       </c>
     </row>
@@ -16102,11 +16102,11 @@
         </is>
       </c>
       <c r="D627" t="n">
-        <v>54272</v>
+        <v>47677</v>
       </c>
       <c r="E627" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>amish stewed crackers</t>
         </is>
       </c>
     </row>
@@ -16127,11 +16127,11 @@
         </is>
       </c>
       <c r="D628" t="n">
-        <v>25274</v>
+        <v>481720</v>
       </c>
       <c r="E628" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>asparagus and eggs  a special breakfast treat</t>
         </is>
       </c>
     </row>
@@ -16152,11 +16152,11 @@
         </is>
       </c>
       <c r="D629" t="n">
-        <v>58224</v>
+        <v>87785</v>
       </c>
       <c r="E629" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>applesauce spice muffins</t>
         </is>
       </c>
     </row>
@@ -16177,11 +16177,11 @@
         </is>
       </c>
       <c r="D630" t="n">
-        <v>93958</v>
+        <v>334849</v>
       </c>
       <c r="E630" t="inlineStr">
         <is>
-          <t>i yam what i yam  muffins</t>
+          <t>asian glazed tilapia</t>
         </is>
       </c>
     </row>
@@ -16202,11 +16202,11 @@
         </is>
       </c>
       <c r="D631" t="n">
-        <v>107699</v>
+        <v>30780</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>almond peach smoothie</t>
         </is>
       </c>
     </row>
@@ -16227,11 +16227,11 @@
         </is>
       </c>
       <c r="D632" t="n">
-        <v>44045</v>
+        <v>400912</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>mennonite  corn fritters</t>
+          <t>apple walnut rice stuffing  vegan</t>
         </is>
       </c>
     </row>
@@ -16252,11 +16252,11 @@
         </is>
       </c>
       <c r="D633" t="n">
-        <v>59389</v>
+        <v>196121</v>
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>alouette  potatoes</t>
+          <t>asparagus phyllo wraps</t>
         </is>
       </c>
     </row>
@@ -16277,11 +16277,11 @@
         </is>
       </c>
       <c r="D634" t="n">
-        <v>27087</v>
+        <v>193644</v>
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>get the sensation  brownies</t>
+          <t>amaranth walnut patties</t>
         </is>
       </c>
     </row>
@@ -16302,11 +16302,11 @@
         </is>
       </c>
       <c r="D635" t="n">
-        <v>112959</v>
+        <v>468652</v>
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>tasty dish s      not so hot  pumpkin pie steamer for 2</t>
         </is>
       </c>
     </row>
@@ -16327,11 +16327,11 @@
         </is>
       </c>
       <c r="D636" t="n">
-        <v>25274</v>
+        <v>261482</v>
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>three sisters  stew</t>
         </is>
       </c>
     </row>
@@ -16352,11 +16352,11 @@
         </is>
       </c>
       <c r="D637" t="n">
-        <v>112959</v>
+        <v>202594</v>
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>after thanksgiving soup</t>
         </is>
       </c>
     </row>
@@ -16377,11 +16377,11 @@
         </is>
       </c>
       <c r="D638" t="n">
-        <v>24701</v>
+        <v>205443</v>
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>vegan mac un cheese</t>
         </is>
       </c>
     </row>
@@ -16402,11 +16402,11 @@
         </is>
       </c>
       <c r="D639" t="n">
-        <v>54272</v>
+        <v>146389</v>
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>after thanksgiving turkey and noodles</t>
         </is>
       </c>
     </row>
@@ -16427,11 +16427,11 @@
         </is>
       </c>
       <c r="D640" t="n">
-        <v>42570</v>
+        <v>336314</v>
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>after thanksgiving turkey  sweet potato and bacon chowder</t>
         </is>
       </c>
     </row>
@@ -16452,11 +16452,11 @@
         </is>
       </c>
       <c r="D641" t="n">
-        <v>8559</v>
+        <v>251316</v>
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>chinese  chop suey</t>
+          <t>apricot oatmeal cookies  vegan</t>
         </is>
       </c>
     </row>
@@ -16477,11 +16477,11 @@
         </is>
       </c>
       <c r="D642" t="n">
-        <v>111875</v>
+        <v>99563</v>
       </c>
       <c r="E642" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>amazing stuffed capsicum</t>
         </is>
       </c>
     </row>
@@ -16502,11 +16502,11 @@
         </is>
       </c>
       <c r="D643" t="n">
-        <v>59952</v>
+        <v>205443</v>
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t>global gourmet  taco casserole</t>
+          <t>vegan mac un cheese</t>
         </is>
       </c>
     </row>
@@ -16527,11 +16527,11 @@
         </is>
       </c>
       <c r="D644" t="n">
-        <v>42522</v>
+        <v>401093</v>
       </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>another yummy veggie loaf</t>
         </is>
       </c>
     </row>
@@ -16552,11 +16552,11 @@
         </is>
       </c>
       <c r="D645" t="n">
-        <v>99024</v>
+        <v>205140</v>
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>smoked  salmon  cracker spread</t>
+          <t>asian tofu loaf</t>
         </is>
       </c>
     </row>
@@ -16577,11 +16577,11 @@
         </is>
       </c>
       <c r="D646" t="n">
-        <v>58224</v>
+        <v>191340</v>
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>arabian yellow lentil soup</t>
         </is>
       </c>
     </row>
@@ -16602,11 +16602,11 @@
         </is>
       </c>
       <c r="D647" t="n">
-        <v>84797</v>
+        <v>399354</v>
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>angel hair pasta with prosciutto and wild mushrooms</t>
         </is>
       </c>
     </row>
@@ -16627,11 +16627,11 @@
         </is>
       </c>
       <c r="D648" t="n">
-        <v>43164</v>
+        <v>84797</v>
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t>mr  grant you took half veal prince orloff</t>
+          <t>love is in the air  beef fondue   sauces</t>
         </is>
       </c>
     </row>
@@ -16652,11 +16652,11 @@
         </is>
       </c>
       <c r="D649" t="n">
-        <v>35653</v>
+        <v>43164</v>
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>make it your way  shortcakes</t>
+          <t>mr  grant you took half veal prince orloff</t>
         </is>
       </c>
     </row>
@@ -16677,11 +16677,11 @@
         </is>
       </c>
       <c r="D650" t="n">
-        <v>137739</v>
+        <v>83213</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>arriba   baked winter squash mexican style</t>
+          <t>apricot glazed green beans</t>
         </is>
       </c>
     </row>
@@ -16702,11 +16702,11 @@
         </is>
       </c>
       <c r="D651" t="n">
-        <v>8559</v>
+        <v>350909</v>
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>chinese  chop suey</t>
+          <t>artichoke stuffed chicken breasts</t>
         </is>
       </c>
     </row>
@@ -16727,11 +16727,11 @@
         </is>
       </c>
       <c r="D652" t="n">
-        <v>84797</v>
+        <v>399354</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>angel hair pasta with prosciutto and wild mushrooms</t>
         </is>
       </c>
     </row>
@@ -16752,11 +16752,11 @@
         </is>
       </c>
       <c r="D653" t="n">
-        <v>35653</v>
+        <v>84797</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
-          <t>make it your way  shortcakes</t>
+          <t>love is in the air  beef fondue   sauces</t>
         </is>
       </c>
     </row>
@@ -16777,11 +16777,11 @@
         </is>
       </c>
       <c r="D654" t="n">
-        <v>33606</v>
+        <v>35653</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>make it your way  shortcakes</t>
         </is>
       </c>
     </row>
@@ -16802,11 +16802,11 @@
         </is>
       </c>
       <c r="D655" t="n">
-        <v>32169</v>
+        <v>83213</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>apricot glazed green beans</t>
         </is>
       </c>
     </row>
@@ -16827,11 +16827,11 @@
         </is>
       </c>
       <c r="D656" t="n">
-        <v>90921</v>
+        <v>350909</v>
       </c>
       <c r="E656" t="inlineStr">
         <is>
-          <t>i stole the idea from mirj  sesame noodles</t>
+          <t>artichoke stuffed chicken breasts</t>
         </is>
       </c>
     </row>
@@ -16852,11 +16852,11 @@
         </is>
       </c>
       <c r="D657" t="n">
-        <v>94710</v>
+        <v>402047</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
-          <t>italian  fries</t>
+          <t>asparagus  beans   arugula salad with mustard vinaigrette</t>
         </is>
       </c>
     </row>
@@ -16877,11 +16877,11 @@
         </is>
       </c>
       <c r="D658" t="n">
-        <v>107699</v>
+        <v>377398</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>3 spice fried pork chops</t>
         </is>
       </c>
     </row>
@@ -16902,11 +16902,11 @@
         </is>
       </c>
       <c r="D659" t="n">
-        <v>63793</v>
+        <v>289509</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>100  authentic vietnamese dipping sauce  nuoc cham</t>
         </is>
       </c>
     </row>
@@ -16927,11 +16927,11 @@
         </is>
       </c>
       <c r="D660" t="n">
-        <v>108804</v>
+        <v>45120</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t>put down your fork   tuna and bean salad</t>
+          <t>absolutely addicitve kale moti biryani   lunch that s complete</t>
         </is>
       </c>
     </row>
@@ -16952,11 +16952,11 @@
         </is>
       </c>
       <c r="D661" t="n">
-        <v>76808</v>
+        <v>350186</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>artichoke parmesan sourdough stuffing</t>
         </is>
       </c>
     </row>
